--- a/Bibsam_tidskriftslistor/scifree_data_wiley.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_wiley.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11083" uniqueCount="6143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11076" uniqueCount="6140">
   <si>
     <t>Open</t>
   </si>
@@ -18261,9 +18261,6 @@
     <t>Pulmonary Circulation</t>
   </si>
   <si>
-    <t>STEM CELLS Translational Medicine</t>
-  </si>
-  <si>
     <t>2053-230X</t>
   </si>
   <si>
@@ -18324,9 +18321,6 @@
     <t>2045-8940</t>
   </si>
   <si>
-    <t>2157-6580</t>
-  </si>
-  <si>
     <t>2692-9368</t>
   </si>
   <si>
@@ -18436,9 +18430,6 @@
   </si>
   <si>
     <t>https://onlinelibrary.wiley.com/journal/20458940</t>
-  </si>
-  <si>
-    <t>https://stemcellsjournals.onlinelibrary.wiley.com/journal/21576580</t>
   </si>
   <si>
     <t>Wiley Interdisciplinary Reviews: Mechanisms of Disease (WIREs)</t>
@@ -18498,23 +18489,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18576,14 +18551,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -18614,8 +18581,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G1619" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A1:G1619"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G1618" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G1618"/>
   <sortState ref="A2:G1619">
     <sortCondition ref="D1:D1619"/>
   </sortState>
@@ -18895,9 +18862,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1619"/>
+  <dimension ref="A1:G1618"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1419" workbookViewId="0">
+      <selection activeCell="D1427" sqref="D1427"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19165,16 +19134,16 @@
         <v>5653</v>
       </c>
       <c r="B12" t="s">
-        <v>6081</v>
+        <v>6080</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>6114</v>
+        <v>6112</v>
       </c>
       <c r="E12" t="s">
-        <v>6115</v>
+        <v>6113</v>
       </c>
       <c r="F12" t="s">
         <v>5652</v>
@@ -21675,13 +21644,13 @@
         <v>5653</v>
       </c>
       <c r="B124" t="s">
-        <v>6082</v>
+        <v>6081</v>
       </c>
       <c r="D124" t="s">
-        <v>6116</v>
+        <v>6114</v>
       </c>
       <c r="E124" t="s">
-        <v>6117</v>
+        <v>6115</v>
       </c>
       <c r="F124" t="s">
         <v>5652</v>
@@ -24365,7 +24334,7 @@
         <v>829</v>
       </c>
       <c r="D242" t="s">
-        <v>6142</v>
+        <v>6139</v>
       </c>
       <c r="E242" t="s">
         <v>830</v>
@@ -24448,16 +24417,16 @@
         <v>5653</v>
       </c>
       <c r="B246" t="s">
-        <v>6083</v>
+        <v>6082</v>
       </c>
       <c r="C246" t="s">
-        <v>6104</v>
+        <v>6102</v>
       </c>
       <c r="D246" t="s">
         <v>6066</v>
       </c>
       <c r="E246" t="s">
-        <v>6118</v>
+        <v>6116</v>
       </c>
       <c r="F246" t="s">
         <v>5652</v>
@@ -25927,7 +25896,7 @@
         <v>5980</v>
       </c>
       <c r="C312" t="s">
-        <v>6103</v>
+        <v>6101</v>
       </c>
       <c r="D312" t="s">
         <v>6067</v>
@@ -27228,16 +27197,16 @@
         <v>5653</v>
       </c>
       <c r="B370" t="s">
-        <v>6084</v>
+        <v>6083</v>
       </c>
       <c r="C370" t="s">
-        <v>6105</v>
+        <v>6103</v>
       </c>
       <c r="D370" t="s">
         <v>6068</v>
       </c>
       <c r="E370" t="s">
-        <v>6119</v>
+        <v>6117</v>
       </c>
       <c r="F370" t="s">
         <v>5652</v>
@@ -28897,16 +28866,16 @@
         <v>5653</v>
       </c>
       <c r="B444" t="s">
-        <v>6085</v>
+        <v>6084</v>
       </c>
       <c r="C444" t="s">
-        <v>6085</v>
+        <v>6084</v>
       </c>
       <c r="D444" t="s">
         <v>6069</v>
       </c>
       <c r="E444" t="s">
-        <v>6120</v>
+        <v>6118</v>
       </c>
       <c r="F444" t="s">
         <v>0</v>
@@ -32556,16 +32525,16 @@
         <v>5653</v>
       </c>
       <c r="B607" t="s">
-        <v>6086</v>
+        <v>6085</v>
       </c>
       <c r="C607" t="s">
-        <v>6106</v>
+        <v>6104</v>
       </c>
       <c r="D607" t="s">
-        <v>6112</v>
+        <v>6110</v>
       </c>
       <c r="E607" t="s">
-        <v>6113</v>
+        <v>6111</v>
       </c>
       <c r="F607" t="s">
         <v>5652</v>
@@ -33145,13 +33114,13 @@
         <v>5653</v>
       </c>
       <c r="B633" t="s">
-        <v>6087</v>
+        <v>6086</v>
       </c>
       <c r="D633" t="s">
         <v>6070</v>
       </c>
       <c r="E633" t="s">
-        <v>6121</v>
+        <v>6119</v>
       </c>
       <c r="F633" t="s">
         <v>0</v>
@@ -33954,16 +33923,16 @@
         <v>5653</v>
       </c>
       <c r="B673" t="s">
-        <v>6088</v>
+        <v>6087</v>
       </c>
       <c r="C673" t="s">
-        <v>6107</v>
+        <v>6105</v>
       </c>
       <c r="D673" t="s">
-        <v>6122</v>
+        <v>6120</v>
       </c>
       <c r="E673" t="s">
-        <v>6123</v>
+        <v>6121</v>
       </c>
       <c r="F673" t="s">
         <v>5652</v>
@@ -36761,16 +36730,16 @@
         <v>5653</v>
       </c>
       <c r="B797" t="s">
-        <v>6089</v>
+        <v>6088</v>
       </c>
       <c r="C797" t="s">
-        <v>6108</v>
+        <v>6106</v>
       </c>
       <c r="D797" t="s">
-        <v>6124</v>
+        <v>6122</v>
       </c>
       <c r="E797" t="s">
-        <v>6125</v>
+        <v>6123</v>
       </c>
       <c r="F797" t="s">
         <v>5652</v>
@@ -39008,16 +38977,16 @@
         <v>5653</v>
       </c>
       <c r="B896" t="s">
-        <v>6090</v>
+        <v>6089</v>
       </c>
       <c r="C896" t="s">
-        <v>6109</v>
+        <v>6107</v>
       </c>
       <c r="D896" t="s">
         <v>6071</v>
       </c>
       <c r="E896" t="s">
-        <v>6126</v>
+        <v>6124</v>
       </c>
       <c r="F896" t="s">
         <v>0</v>
@@ -39465,16 +39434,16 @@
         <v>5653</v>
       </c>
       <c r="B916" t="s">
-        <v>6091</v>
+        <v>6090</v>
       </c>
       <c r="C916" t="s">
-        <v>6110</v>
+        <v>6108</v>
       </c>
       <c r="D916" t="s">
-        <v>6127</v>
+        <v>6125</v>
       </c>
       <c r="E916" t="s">
-        <v>6128</v>
+        <v>6126</v>
       </c>
       <c r="F916" t="s">
         <v>5652</v>
@@ -40793,16 +40762,16 @@
         <v>5653</v>
       </c>
       <c r="B974" t="s">
-        <v>6092</v>
+        <v>6091</v>
       </c>
       <c r="C974" t="s">
         <v>2364</v>
       </c>
       <c r="D974" t="s">
-        <v>6129</v>
+        <v>6127</v>
       </c>
       <c r="E974" t="s">
-        <v>6130</v>
+        <v>6128</v>
       </c>
       <c r="F974" t="s">
         <v>5652</v>
@@ -41733,16 +41702,16 @@
         <v>5653</v>
       </c>
       <c r="B1015" t="s">
-        <v>6093</v>
+        <v>6092</v>
       </c>
       <c r="C1015" t="s">
-        <v>6111</v>
+        <v>6109</v>
       </c>
       <c r="D1015" t="s">
         <v>6072</v>
       </c>
       <c r="E1015" t="s">
-        <v>6131</v>
+        <v>6129</v>
       </c>
       <c r="F1015" t="s">
         <v>5652</v>
@@ -41802,13 +41771,13 @@
         <v>5653</v>
       </c>
       <c r="B1018" t="s">
-        <v>6094</v>
+        <v>6093</v>
       </c>
       <c r="D1018" t="s">
         <v>6073</v>
       </c>
       <c r="E1018" t="s">
-        <v>6132</v>
+        <v>6130</v>
       </c>
       <c r="F1018" t="s">
         <v>0</v>
@@ -44123,16 +44092,16 @@
         <v>5653</v>
       </c>
       <c r="B1121" t="s">
-        <v>6095</v>
+        <v>6094</v>
       </c>
       <c r="C1121" t="s">
-        <v>6103</v>
+        <v>6101</v>
       </c>
       <c r="D1121" t="s">
         <v>6074</v>
       </c>
       <c r="E1121" t="s">
-        <v>6133</v>
+        <v>6131</v>
       </c>
       <c r="F1121" t="s">
         <v>0</v>
@@ -45588,16 +45557,16 @@
         <v>5653</v>
       </c>
       <c r="B1186" t="s">
-        <v>6096</v>
+        <v>6095</v>
       </c>
       <c r="C1186" t="s">
-        <v>6103</v>
+        <v>6101</v>
       </c>
       <c r="D1186" t="s">
         <v>6075</v>
       </c>
       <c r="E1186" t="s">
-        <v>6134</v>
+        <v>6132</v>
       </c>
       <c r="F1186" t="s">
         <v>0</v>
@@ -47226,16 +47195,16 @@
         <v>5653</v>
       </c>
       <c r="B1258" t="s">
-        <v>6097</v>
+        <v>6096</v>
       </c>
       <c r="C1258" t="s">
-        <v>6103</v>
+        <v>6101</v>
       </c>
       <c r="D1258" t="s">
         <v>6076</v>
       </c>
       <c r="E1258" t="s">
-        <v>6135</v>
+        <v>6133</v>
       </c>
       <c r="F1258" t="s">
         <v>0</v>
@@ -48806,13 +48775,13 @@
         <v>5653</v>
       </c>
       <c r="B1328" t="s">
-        <v>6098</v>
+        <v>6097</v>
       </c>
       <c r="D1328" t="s">
         <v>6077</v>
       </c>
       <c r="E1328" t="s">
-        <v>6136</v>
+        <v>6134</v>
       </c>
       <c r="F1328" t="s">
         <v>0</v>
@@ -49056,13 +49025,13 @@
         <v>5653</v>
       </c>
       <c r="B1339" t="s">
-        <v>6099</v>
+        <v>6098</v>
       </c>
       <c r="D1339" t="s">
         <v>6078</v>
       </c>
       <c r="E1339" t="s">
-        <v>6137</v>
+        <v>6135</v>
       </c>
       <c r="F1339" t="s">
         <v>0</v>
@@ -49099,13 +49068,13 @@
         <v>5653</v>
       </c>
       <c r="B1341" t="s">
-        <v>6100</v>
+        <v>6099</v>
       </c>
       <c r="D1341" t="s">
         <v>6079</v>
       </c>
       <c r="E1341" t="s">
-        <v>6138</v>
+        <v>6136</v>
       </c>
       <c r="F1341" t="s">
         <v>0</v>
@@ -51262,16 +51231,16 @@
         <v>5653</v>
       </c>
       <c r="B1437" t="s">
-        <v>6101</v>
+        <v>4874</v>
       </c>
       <c r="C1437" t="s">
-        <v>6101</v>
+        <v>4875</v>
       </c>
       <c r="D1437" t="s">
-        <v>6080</v>
+        <v>4876</v>
       </c>
       <c r="E1437" t="s">
-        <v>6139</v>
+        <v>4877</v>
       </c>
       <c r="F1437" t="s">
         <v>5652</v>
@@ -51285,16 +51254,16 @@
         <v>5653</v>
       </c>
       <c r="B1438" t="s">
-        <v>4874</v>
+        <v>4878</v>
       </c>
       <c r="C1438" t="s">
-        <v>4875</v>
+        <v>4879</v>
       </c>
       <c r="D1438" t="s">
-        <v>4876</v>
+        <v>4880</v>
       </c>
       <c r="E1438" t="s">
-        <v>4877</v>
+        <v>4881</v>
       </c>
       <c r="F1438" t="s">
         <v>5652</v>
@@ -51308,16 +51277,16 @@
         <v>5653</v>
       </c>
       <c r="B1439" t="s">
-        <v>4878</v>
+        <v>4882</v>
       </c>
       <c r="C1439" t="s">
-        <v>4879</v>
+        <v>4883</v>
       </c>
       <c r="D1439" t="s">
-        <v>4880</v>
+        <v>4884</v>
       </c>
       <c r="E1439" t="s">
-        <v>4881</v>
+        <v>4885</v>
       </c>
       <c r="F1439" t="s">
         <v>5652</v>
@@ -51331,16 +51300,16 @@
         <v>5653</v>
       </c>
       <c r="B1440" t="s">
-        <v>4882</v>
+        <v>4886</v>
       </c>
       <c r="C1440" t="s">
-        <v>4883</v>
+        <v>4887</v>
       </c>
       <c r="D1440" t="s">
-        <v>4884</v>
+        <v>4888</v>
       </c>
       <c r="E1440" t="s">
-        <v>4885</v>
+        <v>4889</v>
       </c>
       <c r="F1440" t="s">
         <v>5652</v>
@@ -51354,16 +51323,16 @@
         <v>5653</v>
       </c>
       <c r="B1441" t="s">
-        <v>4886</v>
+        <v>4890</v>
       </c>
       <c r="C1441" t="s">
-        <v>4887</v>
+        <v>4891</v>
       </c>
       <c r="D1441" t="s">
-        <v>4888</v>
+        <v>4892</v>
       </c>
       <c r="E1441" t="s">
-        <v>4889</v>
+        <v>4893</v>
       </c>
       <c r="F1441" t="s">
         <v>5652</v>
@@ -51377,19 +51346,16 @@
         <v>5653</v>
       </c>
       <c r="B1442" t="s">
-        <v>4890</v>
-      </c>
-      <c r="C1442" t="s">
-        <v>4891</v>
+        <v>6036</v>
       </c>
       <c r="D1442" t="s">
-        <v>4892</v>
+        <v>6037</v>
       </c>
       <c r="E1442" t="s">
-        <v>4893</v>
+        <v>6038</v>
       </c>
       <c r="F1442" t="s">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="G1442" t="s">
         <v>5654</v>
@@ -51400,16 +51366,19 @@
         <v>5653</v>
       </c>
       <c r="B1443" t="s">
-        <v>6036</v>
+        <v>4894</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>4895</v>
       </c>
       <c r="D1443" t="s">
-        <v>6037</v>
+        <v>4896</v>
       </c>
       <c r="E1443" t="s">
-        <v>6038</v>
+        <v>4897</v>
       </c>
       <c r="F1443" t="s">
-        <v>0</v>
+        <v>5652</v>
       </c>
       <c r="G1443" t="s">
         <v>5654</v>
@@ -51420,16 +51389,16 @@
         <v>5653</v>
       </c>
       <c r="B1444" t="s">
-        <v>4894</v>
+        <v>4898</v>
       </c>
       <c r="C1444" t="s">
-        <v>4895</v>
+        <v>4899</v>
       </c>
       <c r="D1444" t="s">
-        <v>4896</v>
+        <v>4900</v>
       </c>
       <c r="E1444" t="s">
-        <v>4897</v>
+        <v>4901</v>
       </c>
       <c r="F1444" t="s">
         <v>5652</v>
@@ -51443,16 +51412,16 @@
         <v>5653</v>
       </c>
       <c r="B1445" t="s">
-        <v>4898</v>
+        <v>4906</v>
       </c>
       <c r="C1445" t="s">
-        <v>4899</v>
+        <v>4907</v>
       </c>
       <c r="D1445" t="s">
-        <v>4900</v>
+        <v>4908</v>
       </c>
       <c r="E1445" t="s">
-        <v>4901</v>
+        <v>4909</v>
       </c>
       <c r="F1445" t="s">
         <v>5652</v>
@@ -51466,16 +51435,16 @@
         <v>5653</v>
       </c>
       <c r="B1446" t="s">
-        <v>4906</v>
+        <v>4910</v>
       </c>
       <c r="C1446" t="s">
-        <v>4907</v>
+        <v>4911</v>
       </c>
       <c r="D1446" t="s">
-        <v>4908</v>
+        <v>4912</v>
       </c>
       <c r="E1446" t="s">
-        <v>4909</v>
+        <v>4913</v>
       </c>
       <c r="F1446" t="s">
         <v>5652</v>
@@ -51489,16 +51458,16 @@
         <v>5653</v>
       </c>
       <c r="B1447" t="s">
-        <v>4910</v>
+        <v>4914</v>
       </c>
       <c r="C1447" t="s">
-        <v>4911</v>
+        <v>4915</v>
       </c>
       <c r="D1447" t="s">
-        <v>4912</v>
+        <v>4916</v>
       </c>
       <c r="E1447" t="s">
-        <v>4913</v>
+        <v>4917</v>
       </c>
       <c r="F1447" t="s">
         <v>5652</v>
@@ -51512,16 +51481,16 @@
         <v>5653</v>
       </c>
       <c r="B1448" t="s">
-        <v>4914</v>
+        <v>4918</v>
       </c>
       <c r="C1448" t="s">
-        <v>4915</v>
+        <v>4919</v>
       </c>
       <c r="D1448" t="s">
-        <v>4916</v>
+        <v>4920</v>
       </c>
       <c r="E1448" t="s">
-        <v>4917</v>
+        <v>4921</v>
       </c>
       <c r="F1448" t="s">
         <v>5652</v>
@@ -51535,16 +51504,16 @@
         <v>5653</v>
       </c>
       <c r="B1449" t="s">
-        <v>4918</v>
+        <v>4922</v>
       </c>
       <c r="C1449" t="s">
-        <v>4919</v>
+        <v>4923</v>
       </c>
       <c r="D1449" t="s">
-        <v>4920</v>
+        <v>4924</v>
       </c>
       <c r="E1449" t="s">
-        <v>4921</v>
+        <v>4925</v>
       </c>
       <c r="F1449" t="s">
         <v>5652</v>
@@ -51558,16 +51527,16 @@
         <v>5653</v>
       </c>
       <c r="B1450" t="s">
-        <v>4922</v>
+        <v>4926</v>
       </c>
       <c r="C1450" t="s">
-        <v>4923</v>
+        <v>4927</v>
       </c>
       <c r="D1450" t="s">
-        <v>4924</v>
+        <v>4928</v>
       </c>
       <c r="E1450" t="s">
-        <v>4925</v>
+        <v>4929</v>
       </c>
       <c r="F1450" t="s">
         <v>5652</v>
@@ -51581,16 +51550,16 @@
         <v>5653</v>
       </c>
       <c r="B1451" t="s">
-        <v>4926</v>
+        <v>4930</v>
       </c>
       <c r="C1451" t="s">
-        <v>4927</v>
+        <v>4931</v>
       </c>
       <c r="D1451" t="s">
-        <v>4928</v>
+        <v>4932</v>
       </c>
       <c r="E1451" t="s">
-        <v>4929</v>
+        <v>4933</v>
       </c>
       <c r="F1451" t="s">
         <v>5652</v>
@@ -51604,19 +51573,16 @@
         <v>5653</v>
       </c>
       <c r="B1452" t="s">
-        <v>4930</v>
-      </c>
-      <c r="C1452" t="s">
-        <v>4931</v>
+        <v>6039</v>
       </c>
       <c r="D1452" t="s">
-        <v>4932</v>
+        <v>6040</v>
       </c>
       <c r="E1452" t="s">
-        <v>4933</v>
+        <v>6041</v>
       </c>
       <c r="F1452" t="s">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="G1452" t="s">
         <v>5654</v>
@@ -51627,16 +51593,19 @@
         <v>5653</v>
       </c>
       <c r="B1453" t="s">
-        <v>6039</v>
+        <v>4934</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>4935</v>
       </c>
       <c r="D1453" t="s">
-        <v>6040</v>
+        <v>4936</v>
       </c>
       <c r="E1453" t="s">
-        <v>6041</v>
+        <v>4937</v>
       </c>
       <c r="F1453" t="s">
-        <v>0</v>
+        <v>5652</v>
       </c>
       <c r="G1453" t="s">
         <v>5654</v>
@@ -51647,16 +51616,16 @@
         <v>5653</v>
       </c>
       <c r="B1454" t="s">
-        <v>4934</v>
+        <v>4938</v>
       </c>
       <c r="C1454" t="s">
-        <v>4935</v>
+        <v>4939</v>
       </c>
       <c r="D1454" t="s">
-        <v>4936</v>
+        <v>4940</v>
       </c>
       <c r="E1454" t="s">
-        <v>4937</v>
+        <v>4941</v>
       </c>
       <c r="F1454" t="s">
         <v>5652</v>
@@ -51670,16 +51639,16 @@
         <v>5653</v>
       </c>
       <c r="B1455" t="s">
-        <v>4938</v>
+        <v>4942</v>
       </c>
       <c r="C1455" t="s">
-        <v>4939</v>
+        <v>4943</v>
       </c>
       <c r="D1455" t="s">
-        <v>4940</v>
+        <v>4944</v>
       </c>
       <c r="E1455" t="s">
-        <v>4941</v>
+        <v>4945</v>
       </c>
       <c r="F1455" t="s">
         <v>5652</v>
@@ -51693,16 +51662,16 @@
         <v>5653</v>
       </c>
       <c r="B1456" t="s">
-        <v>4942</v>
+        <v>4946</v>
       </c>
       <c r="C1456" t="s">
-        <v>4943</v>
+        <v>4947</v>
       </c>
       <c r="D1456" t="s">
-        <v>4944</v>
+        <v>4948</v>
       </c>
       <c r="E1456" t="s">
-        <v>4945</v>
+        <v>4949</v>
       </c>
       <c r="F1456" t="s">
         <v>5652</v>
@@ -51716,16 +51685,16 @@
         <v>5653</v>
       </c>
       <c r="B1457" t="s">
-        <v>4946</v>
+        <v>4950</v>
       </c>
       <c r="C1457" t="s">
-        <v>4947</v>
+        <v>4951</v>
       </c>
       <c r="D1457" t="s">
-        <v>4948</v>
+        <v>4952</v>
       </c>
       <c r="E1457" t="s">
-        <v>4949</v>
+        <v>4953</v>
       </c>
       <c r="F1457" t="s">
         <v>5652</v>
@@ -51739,16 +51708,16 @@
         <v>5653</v>
       </c>
       <c r="B1458" t="s">
-        <v>4950</v>
+        <v>4954</v>
       </c>
       <c r="C1458" t="s">
-        <v>4951</v>
+        <v>4955</v>
       </c>
       <c r="D1458" t="s">
-        <v>4952</v>
+        <v>4956</v>
       </c>
       <c r="E1458" t="s">
-        <v>4953</v>
+        <v>4957</v>
       </c>
       <c r="F1458" t="s">
         <v>5652</v>
@@ -51762,16 +51731,16 @@
         <v>5653</v>
       </c>
       <c r="B1459" t="s">
-        <v>4954</v>
+        <v>4958</v>
       </c>
       <c r="C1459" t="s">
-        <v>4955</v>
+        <v>4959</v>
       </c>
       <c r="D1459" t="s">
-        <v>4956</v>
+        <v>4960</v>
       </c>
       <c r="E1459" t="s">
-        <v>4957</v>
+        <v>4961</v>
       </c>
       <c r="F1459" t="s">
         <v>5652</v>
@@ -51785,16 +51754,16 @@
         <v>5653</v>
       </c>
       <c r="B1460" t="s">
-        <v>4958</v>
+        <v>4962</v>
       </c>
       <c r="C1460" t="s">
-        <v>4959</v>
+        <v>4963</v>
       </c>
       <c r="D1460" t="s">
-        <v>4960</v>
+        <v>4964</v>
       </c>
       <c r="E1460" t="s">
-        <v>4961</v>
+        <v>4965</v>
       </c>
       <c r="F1460" t="s">
         <v>5652</v>
@@ -51808,16 +51777,16 @@
         <v>5653</v>
       </c>
       <c r="B1461" t="s">
-        <v>4962</v>
+        <v>5781</v>
       </c>
       <c r="C1461" t="s">
-        <v>4963</v>
+        <v>5782</v>
       </c>
       <c r="D1461" t="s">
-        <v>4964</v>
+        <v>5899</v>
       </c>
       <c r="E1461" t="s">
-        <v>4965</v>
+        <v>5900</v>
       </c>
       <c r="F1461" t="s">
         <v>5652</v>
@@ -51831,16 +51800,16 @@
         <v>5653</v>
       </c>
       <c r="B1462" t="s">
-        <v>5781</v>
+        <v>4966</v>
       </c>
       <c r="C1462" t="s">
-        <v>5782</v>
+        <v>4967</v>
       </c>
       <c r="D1462" t="s">
-        <v>5899</v>
+        <v>4968</v>
       </c>
       <c r="E1462" t="s">
-        <v>5900</v>
+        <v>4969</v>
       </c>
       <c r="F1462" t="s">
         <v>5652</v>
@@ -51854,16 +51823,16 @@
         <v>5653</v>
       </c>
       <c r="B1463" t="s">
-        <v>4966</v>
+        <v>4970</v>
       </c>
       <c r="C1463" t="s">
-        <v>4967</v>
+        <v>4971</v>
       </c>
       <c r="D1463" t="s">
-        <v>4968</v>
+        <v>4972</v>
       </c>
       <c r="E1463" t="s">
-        <v>4969</v>
+        <v>4973</v>
       </c>
       <c r="F1463" t="s">
         <v>5652</v>
@@ -51877,16 +51846,16 @@
         <v>5653</v>
       </c>
       <c r="B1464" t="s">
-        <v>4970</v>
+        <v>4974</v>
       </c>
       <c r="C1464" t="s">
-        <v>4971</v>
+        <v>4975</v>
       </c>
       <c r="D1464" t="s">
-        <v>4972</v>
+        <v>4976</v>
       </c>
       <c r="E1464" t="s">
-        <v>4973</v>
+        <v>4977</v>
       </c>
       <c r="F1464" t="s">
         <v>5652</v>
@@ -51900,16 +51869,16 @@
         <v>5653</v>
       </c>
       <c r="B1465" t="s">
-        <v>4974</v>
+        <v>4978</v>
       </c>
       <c r="C1465" t="s">
-        <v>4975</v>
+        <v>4979</v>
       </c>
       <c r="D1465" t="s">
-        <v>4976</v>
+        <v>4980</v>
       </c>
       <c r="E1465" t="s">
-        <v>4977</v>
+        <v>4981</v>
       </c>
       <c r="F1465" t="s">
         <v>5652</v>
@@ -51923,16 +51892,16 @@
         <v>5653</v>
       </c>
       <c r="B1466" t="s">
-        <v>4978</v>
+        <v>4982</v>
       </c>
       <c r="C1466" t="s">
-        <v>4979</v>
+        <v>4983</v>
       </c>
       <c r="D1466" t="s">
-        <v>4980</v>
+        <v>4984</v>
       </c>
       <c r="E1466" t="s">
-        <v>4981</v>
+        <v>4985</v>
       </c>
       <c r="F1466" t="s">
         <v>5652</v>
@@ -51946,16 +51915,16 @@
         <v>5653</v>
       </c>
       <c r="B1467" t="s">
-        <v>4982</v>
+        <v>4986</v>
       </c>
       <c r="C1467" t="s">
-        <v>4983</v>
+        <v>4987</v>
       </c>
       <c r="D1467" t="s">
-        <v>4984</v>
+        <v>4988</v>
       </c>
       <c r="E1467" t="s">
-        <v>4985</v>
+        <v>4989</v>
       </c>
       <c r="F1467" t="s">
         <v>5652</v>
@@ -51969,16 +51938,16 @@
         <v>5653</v>
       </c>
       <c r="B1468" t="s">
-        <v>4986</v>
+        <v>4990</v>
       </c>
       <c r="C1468" t="s">
-        <v>4987</v>
+        <v>4991</v>
       </c>
       <c r="D1468" t="s">
-        <v>4988</v>
+        <v>4992</v>
       </c>
       <c r="E1468" t="s">
-        <v>4989</v>
+        <v>4993</v>
       </c>
       <c r="F1468" t="s">
         <v>5652</v>
@@ -51992,16 +51961,16 @@
         <v>5653</v>
       </c>
       <c r="B1469" t="s">
-        <v>4990</v>
+        <v>205</v>
       </c>
       <c r="C1469" t="s">
-        <v>4991</v>
+        <v>206</v>
       </c>
       <c r="D1469" t="s">
-        <v>4992</v>
+        <v>207</v>
       </c>
       <c r="E1469" t="s">
-        <v>4993</v>
+        <v>208</v>
       </c>
       <c r="F1469" t="s">
         <v>5652</v>
@@ -52015,16 +51984,16 @@
         <v>5653</v>
       </c>
       <c r="B1470" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="C1470" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="D1470" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="E1470" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="F1470" t="s">
         <v>5652</v>
@@ -52038,16 +52007,16 @@
         <v>5653</v>
       </c>
       <c r="B1471" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="C1471" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="D1471" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="E1471" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="F1471" t="s">
         <v>5652</v>
@@ -52061,16 +52030,16 @@
         <v>5653</v>
       </c>
       <c r="B1472" t="s">
-        <v>269</v>
+        <v>565</v>
       </c>
       <c r="C1472" t="s">
-        <v>270</v>
+        <v>566</v>
       </c>
       <c r="D1472" t="s">
-        <v>271</v>
+        <v>567</v>
       </c>
       <c r="E1472" t="s">
-        <v>272</v>
+        <v>568</v>
       </c>
       <c r="F1472" t="s">
         <v>5652</v>
@@ -52084,16 +52053,16 @@
         <v>5653</v>
       </c>
       <c r="B1473" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="C1473" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="D1473" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="E1473" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="F1473" t="s">
         <v>5652</v>
@@ -52107,16 +52076,16 @@
         <v>5653</v>
       </c>
       <c r="B1474" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C1474" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D1474" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="E1474" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F1474" t="s">
         <v>5652</v>
@@ -52130,16 +52099,16 @@
         <v>5653</v>
       </c>
       <c r="B1475" t="s">
-        <v>577</v>
+        <v>802</v>
       </c>
       <c r="C1475" t="s">
-        <v>578</v>
+        <v>803</v>
       </c>
       <c r="D1475" t="s">
-        <v>579</v>
+        <v>804</v>
       </c>
       <c r="E1475" t="s">
-        <v>580</v>
+        <v>805</v>
       </c>
       <c r="F1475" t="s">
         <v>5652</v>
@@ -52153,19 +52122,16 @@
         <v>5653</v>
       </c>
       <c r="B1476" t="s">
-        <v>802</v>
-      </c>
-      <c r="C1476" t="s">
-        <v>803</v>
+        <v>5613</v>
       </c>
       <c r="D1476" t="s">
-        <v>804</v>
+        <v>5614</v>
       </c>
       <c r="E1476" t="s">
-        <v>805</v>
+        <v>5615</v>
       </c>
       <c r="F1476" t="s">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="G1476" t="s">
         <v>5654</v>
@@ -52176,16 +52142,19 @@
         <v>5653</v>
       </c>
       <c r="B1477" t="s">
-        <v>5613</v>
+        <v>838</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>839</v>
       </c>
       <c r="D1477" t="s">
-        <v>5614</v>
+        <v>840</v>
       </c>
       <c r="E1477" t="s">
-        <v>5615</v>
+        <v>841</v>
       </c>
       <c r="F1477" t="s">
-        <v>0</v>
+        <v>5652</v>
       </c>
       <c r="G1477" t="s">
         <v>5654</v>
@@ -52196,16 +52165,16 @@
         <v>5653</v>
       </c>
       <c r="B1478" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="C1478" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="D1478" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="E1478" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="F1478" t="s">
         <v>5652</v>
@@ -52219,16 +52188,16 @@
         <v>5653</v>
       </c>
       <c r="B1479" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="C1479" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="D1479" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="E1479" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="F1479" t="s">
         <v>5652</v>
@@ -52242,16 +52211,16 @@
         <v>5653</v>
       </c>
       <c r="B1480" t="s">
-        <v>858</v>
+        <v>881</v>
       </c>
       <c r="C1480" t="s">
-        <v>859</v>
+        <v>882</v>
       </c>
       <c r="D1480" t="s">
-        <v>860</v>
+        <v>883</v>
       </c>
       <c r="E1480" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="F1480" t="s">
         <v>5652</v>
@@ -52265,16 +52234,16 @@
         <v>5653</v>
       </c>
       <c r="B1481" t="s">
-        <v>881</v>
+        <v>921</v>
       </c>
       <c r="C1481" t="s">
-        <v>882</v>
+        <v>922</v>
       </c>
       <c r="D1481" t="s">
-        <v>883</v>
+        <v>923</v>
       </c>
       <c r="E1481" t="s">
-        <v>884</v>
+        <v>924</v>
       </c>
       <c r="F1481" t="s">
         <v>5652</v>
@@ -52288,19 +52257,19 @@
         <v>5653</v>
       </c>
       <c r="B1482" t="s">
-        <v>921</v>
+        <v>1088</v>
       </c>
       <c r="C1482" t="s">
-        <v>922</v>
+        <v>1089</v>
       </c>
       <c r="D1482" t="s">
-        <v>923</v>
+        <v>1090</v>
       </c>
       <c r="E1482" t="s">
-        <v>924</v>
+        <v>1091</v>
       </c>
       <c r="F1482" t="s">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="G1482" t="s">
         <v>5654</v>
@@ -52311,19 +52280,19 @@
         <v>5653</v>
       </c>
       <c r="B1483" t="s">
-        <v>1088</v>
+        <v>1238</v>
       </c>
       <c r="C1483" t="s">
-        <v>1089</v>
+        <v>1239</v>
       </c>
       <c r="D1483" t="s">
-        <v>1090</v>
+        <v>1240</v>
       </c>
       <c r="E1483" t="s">
-        <v>1091</v>
+        <v>1241</v>
       </c>
       <c r="F1483" t="s">
-        <v>0</v>
+        <v>5652</v>
       </c>
       <c r="G1483" t="s">
         <v>5654</v>
@@ -52334,19 +52303,16 @@
         <v>5653</v>
       </c>
       <c r="B1484" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C1484" t="s">
-        <v>1239</v>
+        <v>5616</v>
       </c>
       <c r="D1484" t="s">
-        <v>1240</v>
+        <v>5617</v>
       </c>
       <c r="E1484" t="s">
-        <v>1241</v>
+        <v>5618</v>
       </c>
       <c r="F1484" t="s">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="G1484" t="s">
         <v>5654</v>
@@ -52357,16 +52323,19 @@
         <v>5653</v>
       </c>
       <c r="B1485" t="s">
-        <v>5616</v>
+        <v>1293</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>1294</v>
       </c>
       <c r="D1485" t="s">
-        <v>5617</v>
+        <v>1295</v>
       </c>
       <c r="E1485" t="s">
-        <v>5618</v>
+        <v>1296</v>
       </c>
       <c r="F1485" t="s">
-        <v>0</v>
+        <v>5652</v>
       </c>
       <c r="G1485" t="s">
         <v>5654</v>
@@ -52377,16 +52346,16 @@
         <v>5653</v>
       </c>
       <c r="B1486" t="s">
-        <v>1293</v>
+        <v>1479</v>
       </c>
       <c r="C1486" t="s">
-        <v>1294</v>
+        <v>1480</v>
       </c>
       <c r="D1486" t="s">
-        <v>1295</v>
+        <v>1481</v>
       </c>
       <c r="E1486" t="s">
-        <v>1296</v>
+        <v>1482</v>
       </c>
       <c r="F1486" t="s">
         <v>5652</v>
@@ -52400,16 +52369,16 @@
         <v>5653</v>
       </c>
       <c r="B1487" t="s">
-        <v>1479</v>
+        <v>1495</v>
       </c>
       <c r="C1487" t="s">
-        <v>1480</v>
+        <v>44</v>
       </c>
       <c r="D1487" t="s">
-        <v>1481</v>
+        <v>1496</v>
       </c>
       <c r="E1487" t="s">
-        <v>1482</v>
+        <v>1497</v>
       </c>
       <c r="F1487" t="s">
         <v>5652</v>
@@ -52423,16 +52392,16 @@
         <v>5653</v>
       </c>
       <c r="B1488" t="s">
-        <v>1495</v>
+        <v>1506</v>
       </c>
       <c r="C1488" t="s">
-        <v>44</v>
+        <v>1507</v>
       </c>
       <c r="D1488" t="s">
-        <v>1496</v>
+        <v>1508</v>
       </c>
       <c r="E1488" t="s">
-        <v>1497</v>
+        <v>1509</v>
       </c>
       <c r="F1488" t="s">
         <v>5652</v>
@@ -52446,16 +52415,16 @@
         <v>5653</v>
       </c>
       <c r="B1489" t="s">
-        <v>1506</v>
+        <v>1739</v>
       </c>
       <c r="C1489" t="s">
-        <v>1507</v>
+        <v>44</v>
       </c>
       <c r="D1489" t="s">
-        <v>1508</v>
+        <v>1740</v>
       </c>
       <c r="E1489" t="s">
-        <v>1509</v>
+        <v>1741</v>
       </c>
       <c r="F1489" t="s">
         <v>5652</v>
@@ -52469,16 +52438,16 @@
         <v>5653</v>
       </c>
       <c r="B1490" t="s">
-        <v>1739</v>
+        <v>1746</v>
       </c>
       <c r="C1490" t="s">
-        <v>44</v>
+        <v>1747</v>
       </c>
       <c r="D1490" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="E1490" t="s">
-        <v>1741</v>
+        <v>1749</v>
       </c>
       <c r="F1490" t="s">
         <v>5652</v>
@@ -52492,16 +52461,16 @@
         <v>5653</v>
       </c>
       <c r="B1491" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C1491" t="s">
-        <v>1747</v>
+        <v>1773</v>
       </c>
       <c r="D1491" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E1491" t="s">
-        <v>1749</v>
+        <v>1775</v>
       </c>
       <c r="F1491" t="s">
         <v>5652</v>
@@ -52515,16 +52484,16 @@
         <v>5653</v>
       </c>
       <c r="B1492" t="s">
-        <v>1772</v>
+        <v>1889</v>
       </c>
       <c r="C1492" t="s">
-        <v>1773</v>
+        <v>1890</v>
       </c>
       <c r="D1492" t="s">
-        <v>1774</v>
+        <v>1891</v>
       </c>
       <c r="E1492" t="s">
-        <v>1775</v>
+        <v>1892</v>
       </c>
       <c r="F1492" t="s">
         <v>5652</v>
@@ -52538,16 +52507,16 @@
         <v>5653</v>
       </c>
       <c r="B1493" t="s">
-        <v>1889</v>
+        <v>1923</v>
       </c>
       <c r="C1493" t="s">
-        <v>1890</v>
+        <v>1924</v>
       </c>
       <c r="D1493" t="s">
-        <v>1891</v>
+        <v>1925</v>
       </c>
       <c r="E1493" t="s">
-        <v>1892</v>
+        <v>1926</v>
       </c>
       <c r="F1493" t="s">
         <v>5652</v>
@@ -52561,16 +52530,16 @@
         <v>5653</v>
       </c>
       <c r="B1494" t="s">
-        <v>1923</v>
+        <v>2050</v>
       </c>
       <c r="C1494" t="s">
-        <v>1924</v>
+        <v>2051</v>
       </c>
       <c r="D1494" t="s">
-        <v>1925</v>
+        <v>2052</v>
       </c>
       <c r="E1494" t="s">
-        <v>1926</v>
+        <v>2053</v>
       </c>
       <c r="F1494" t="s">
         <v>5652</v>
@@ -52584,16 +52553,16 @@
         <v>5653</v>
       </c>
       <c r="B1495" t="s">
-        <v>2050</v>
+        <v>2084</v>
       </c>
       <c r="C1495" t="s">
-        <v>2051</v>
+        <v>2085</v>
       </c>
       <c r="D1495" t="s">
-        <v>2052</v>
+        <v>2086</v>
       </c>
       <c r="E1495" t="s">
-        <v>2053</v>
+        <v>2087</v>
       </c>
       <c r="F1495" t="s">
         <v>5652</v>
@@ -52607,16 +52576,16 @@
         <v>5653</v>
       </c>
       <c r="B1496" t="s">
-        <v>2084</v>
+        <v>2320</v>
       </c>
       <c r="C1496" t="s">
-        <v>2085</v>
+        <v>2321</v>
       </c>
       <c r="D1496" t="s">
-        <v>2086</v>
+        <v>2322</v>
       </c>
       <c r="E1496" t="s">
-        <v>2087</v>
+        <v>2323</v>
       </c>
       <c r="F1496" t="s">
         <v>5652</v>
@@ -52630,16 +52599,16 @@
         <v>5653</v>
       </c>
       <c r="B1497" t="s">
-        <v>2320</v>
+        <v>2352</v>
       </c>
       <c r="C1497" t="s">
-        <v>2321</v>
+        <v>2353</v>
       </c>
       <c r="D1497" t="s">
-        <v>2322</v>
+        <v>2354</v>
       </c>
       <c r="E1497" t="s">
-        <v>2323</v>
+        <v>2355</v>
       </c>
       <c r="F1497" t="s">
         <v>5652</v>
@@ -52653,16 +52622,16 @@
         <v>5653</v>
       </c>
       <c r="B1498" t="s">
-        <v>2352</v>
+        <v>2587</v>
       </c>
       <c r="C1498" t="s">
-        <v>2353</v>
+        <v>2588</v>
       </c>
       <c r="D1498" t="s">
-        <v>2354</v>
+        <v>2589</v>
       </c>
       <c r="E1498" t="s">
-        <v>2355</v>
+        <v>2590</v>
       </c>
       <c r="F1498" t="s">
         <v>5652</v>
@@ -52676,16 +52645,16 @@
         <v>5653</v>
       </c>
       <c r="B1499" t="s">
-        <v>2587</v>
+        <v>2743</v>
       </c>
       <c r="C1499" t="s">
-        <v>2588</v>
+        <v>2744</v>
       </c>
       <c r="D1499" t="s">
-        <v>2589</v>
+        <v>2745</v>
       </c>
       <c r="E1499" t="s">
-        <v>2590</v>
+        <v>2746</v>
       </c>
       <c r="F1499" t="s">
         <v>5652</v>
@@ -52699,19 +52668,16 @@
         <v>5653</v>
       </c>
       <c r="B1500" t="s">
-        <v>2743</v>
-      </c>
-      <c r="C1500" t="s">
-        <v>2744</v>
+        <v>5783</v>
       </c>
       <c r="D1500" t="s">
-        <v>2745</v>
+        <v>5901</v>
       </c>
       <c r="E1500" t="s">
-        <v>2746</v>
+        <v>5902</v>
       </c>
       <c r="F1500" t="s">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="G1500" t="s">
         <v>5654</v>
@@ -52722,16 +52688,19 @@
         <v>5653</v>
       </c>
       <c r="B1501" t="s">
-        <v>5783</v>
+        <v>2787</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>2788</v>
       </c>
       <c r="D1501" t="s">
-        <v>5901</v>
+        <v>2789</v>
       </c>
       <c r="E1501" t="s">
-        <v>5902</v>
+        <v>2790</v>
       </c>
       <c r="F1501" t="s">
-        <v>0</v>
+        <v>5652</v>
       </c>
       <c r="G1501" t="s">
         <v>5654</v>
@@ -52742,16 +52711,16 @@
         <v>5653</v>
       </c>
       <c r="B1502" t="s">
-        <v>2787</v>
+        <v>2827</v>
       </c>
       <c r="C1502" t="s">
-        <v>2788</v>
+        <v>2828</v>
       </c>
       <c r="D1502" t="s">
-        <v>2789</v>
+        <v>2829</v>
       </c>
       <c r="E1502" t="s">
-        <v>2790</v>
+        <v>2830</v>
       </c>
       <c r="F1502" t="s">
         <v>5652</v>
@@ -52765,16 +52734,16 @@
         <v>5653</v>
       </c>
       <c r="B1503" t="s">
-        <v>2827</v>
+        <v>2839</v>
       </c>
       <c r="C1503" t="s">
-        <v>2828</v>
+        <v>2840</v>
       </c>
       <c r="D1503" t="s">
-        <v>2829</v>
+        <v>2841</v>
       </c>
       <c r="E1503" t="s">
-        <v>2830</v>
+        <v>2842</v>
       </c>
       <c r="F1503" t="s">
         <v>5652</v>
@@ -52788,19 +52757,16 @@
         <v>5653</v>
       </c>
       <c r="B1504" t="s">
-        <v>2839</v>
-      </c>
-      <c r="C1504" t="s">
-        <v>2840</v>
+        <v>5784</v>
       </c>
       <c r="D1504" t="s">
-        <v>2841</v>
+        <v>5903</v>
       </c>
       <c r="E1504" t="s">
-        <v>2842</v>
+        <v>5904</v>
       </c>
       <c r="F1504" t="s">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="G1504" t="s">
         <v>5654</v>
@@ -52811,16 +52777,19 @@
         <v>5653</v>
       </c>
       <c r="B1505" t="s">
-        <v>5784</v>
+        <v>2882</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>2883</v>
       </c>
       <c r="D1505" t="s">
-        <v>5903</v>
+        <v>2884</v>
       </c>
       <c r="E1505" t="s">
-        <v>5904</v>
+        <v>2885</v>
       </c>
       <c r="F1505" t="s">
-        <v>0</v>
+        <v>5652</v>
       </c>
       <c r="G1505" t="s">
         <v>5654</v>
@@ -52831,16 +52800,16 @@
         <v>5653</v>
       </c>
       <c r="B1506" t="s">
-        <v>2882</v>
+        <v>2918</v>
       </c>
       <c r="C1506" t="s">
-        <v>2883</v>
+        <v>2919</v>
       </c>
       <c r="D1506" t="s">
-        <v>2884</v>
+        <v>2920</v>
       </c>
       <c r="E1506" t="s">
-        <v>2885</v>
+        <v>2921</v>
       </c>
       <c r="F1506" t="s">
         <v>5652</v>
@@ -52854,16 +52823,16 @@
         <v>5653</v>
       </c>
       <c r="B1507" t="s">
-        <v>2918</v>
+        <v>2922</v>
       </c>
       <c r="C1507" t="s">
-        <v>2919</v>
+        <v>2923</v>
       </c>
       <c r="D1507" t="s">
-        <v>2920</v>
+        <v>2924</v>
       </c>
       <c r="E1507" t="s">
-        <v>2921</v>
+        <v>2925</v>
       </c>
       <c r="F1507" t="s">
         <v>5652</v>
@@ -52877,16 +52846,16 @@
         <v>5653</v>
       </c>
       <c r="B1508" t="s">
-        <v>2922</v>
+        <v>2962</v>
       </c>
       <c r="C1508" t="s">
-        <v>2923</v>
+        <v>2963</v>
       </c>
       <c r="D1508" t="s">
-        <v>2924</v>
+        <v>2964</v>
       </c>
       <c r="E1508" t="s">
-        <v>2925</v>
+        <v>2965</v>
       </c>
       <c r="F1508" t="s">
         <v>5652</v>
@@ -52900,16 +52869,16 @@
         <v>5653</v>
       </c>
       <c r="B1509" t="s">
-        <v>2962</v>
+        <v>2970</v>
       </c>
       <c r="C1509" t="s">
-        <v>2963</v>
+        <v>2971</v>
       </c>
       <c r="D1509" t="s">
-        <v>2964</v>
+        <v>2972</v>
       </c>
       <c r="E1509" t="s">
-        <v>2965</v>
+        <v>2973</v>
       </c>
       <c r="F1509" t="s">
         <v>5652</v>
@@ -52923,16 +52892,16 @@
         <v>5653</v>
       </c>
       <c r="B1510" t="s">
-        <v>2970</v>
+        <v>3025</v>
       </c>
       <c r="C1510" t="s">
-        <v>2971</v>
+        <v>3026</v>
       </c>
       <c r="D1510" t="s">
-        <v>2972</v>
+        <v>3027</v>
       </c>
       <c r="E1510" t="s">
-        <v>2973</v>
+        <v>3028</v>
       </c>
       <c r="F1510" t="s">
         <v>5652</v>
@@ -52946,16 +52915,16 @@
         <v>5653</v>
       </c>
       <c r="B1511" t="s">
-        <v>3025</v>
+        <v>3033</v>
       </c>
       <c r="C1511" t="s">
-        <v>3026</v>
+        <v>3034</v>
       </c>
       <c r="D1511" t="s">
-        <v>3027</v>
+        <v>3035</v>
       </c>
       <c r="E1511" t="s">
-        <v>3028</v>
+        <v>3036</v>
       </c>
       <c r="F1511" t="s">
         <v>5652</v>
@@ -52969,16 +52938,16 @@
         <v>5653</v>
       </c>
       <c r="B1512" t="s">
-        <v>3033</v>
+        <v>3225</v>
       </c>
       <c r="C1512" t="s">
-        <v>3034</v>
+        <v>3226</v>
       </c>
       <c r="D1512" t="s">
-        <v>3035</v>
+        <v>3227</v>
       </c>
       <c r="E1512" t="s">
-        <v>3036</v>
+        <v>3228</v>
       </c>
       <c r="F1512" t="s">
         <v>5652</v>
@@ -52992,19 +52961,16 @@
         <v>5653</v>
       </c>
       <c r="B1513" t="s">
-        <v>3225</v>
-      </c>
-      <c r="C1513" t="s">
-        <v>3226</v>
+        <v>5619</v>
       </c>
       <c r="D1513" t="s">
-        <v>3227</v>
+        <v>5620</v>
       </c>
       <c r="E1513" t="s">
-        <v>3228</v>
+        <v>5621</v>
       </c>
       <c r="F1513" t="s">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="G1513" t="s">
         <v>5654</v>
@@ -53015,16 +52981,19 @@
         <v>5653</v>
       </c>
       <c r="B1514" t="s">
-        <v>5619</v>
+        <v>3265</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>3266</v>
       </c>
       <c r="D1514" t="s">
-        <v>5620</v>
+        <v>3267</v>
       </c>
       <c r="E1514" t="s">
-        <v>5621</v>
+        <v>3268</v>
       </c>
       <c r="F1514" t="s">
-        <v>0</v>
+        <v>5652</v>
       </c>
       <c r="G1514" t="s">
         <v>5654</v>
@@ -53035,16 +53004,16 @@
         <v>5653</v>
       </c>
       <c r="B1515" t="s">
-        <v>3265</v>
+        <v>3292</v>
       </c>
       <c r="C1515" t="s">
-        <v>3266</v>
+        <v>3293</v>
       </c>
       <c r="D1515" t="s">
-        <v>3267</v>
+        <v>3294</v>
       </c>
       <c r="E1515" t="s">
-        <v>3268</v>
+        <v>3295</v>
       </c>
       <c r="F1515" t="s">
         <v>5652</v>
@@ -53058,16 +53027,16 @@
         <v>5653</v>
       </c>
       <c r="B1516" t="s">
-        <v>3292</v>
+        <v>3299</v>
       </c>
       <c r="C1516" t="s">
-        <v>3293</v>
+        <v>3300</v>
       </c>
       <c r="D1516" t="s">
-        <v>3294</v>
+        <v>3301</v>
       </c>
       <c r="E1516" t="s">
-        <v>3295</v>
+        <v>3302</v>
       </c>
       <c r="F1516" t="s">
         <v>5652</v>
@@ -53081,16 +53050,16 @@
         <v>5653</v>
       </c>
       <c r="B1517" t="s">
-        <v>3299</v>
+        <v>3303</v>
       </c>
       <c r="C1517" t="s">
-        <v>3300</v>
+        <v>3304</v>
       </c>
       <c r="D1517" t="s">
-        <v>3301</v>
+        <v>3305</v>
       </c>
       <c r="E1517" t="s">
-        <v>3302</v>
+        <v>3306</v>
       </c>
       <c r="F1517" t="s">
         <v>5652</v>
@@ -53104,16 +53073,16 @@
         <v>5653</v>
       </c>
       <c r="B1518" t="s">
-        <v>3303</v>
+        <v>3370</v>
       </c>
       <c r="C1518" t="s">
-        <v>3304</v>
+        <v>3371</v>
       </c>
       <c r="D1518" t="s">
-        <v>3305</v>
+        <v>3372</v>
       </c>
       <c r="E1518" t="s">
-        <v>3306</v>
+        <v>3373</v>
       </c>
       <c r="F1518" t="s">
         <v>5652</v>
@@ -53127,16 +53096,16 @@
         <v>5653</v>
       </c>
       <c r="B1519" t="s">
-        <v>3370</v>
+        <v>3542</v>
       </c>
       <c r="C1519" t="s">
-        <v>3371</v>
+        <v>3543</v>
       </c>
       <c r="D1519" t="s">
-        <v>3372</v>
+        <v>3544</v>
       </c>
       <c r="E1519" t="s">
-        <v>3373</v>
+        <v>3545</v>
       </c>
       <c r="F1519" t="s">
         <v>5652</v>
@@ -53150,16 +53119,16 @@
         <v>5653</v>
       </c>
       <c r="B1520" t="s">
-        <v>3542</v>
+        <v>3546</v>
       </c>
       <c r="C1520" t="s">
-        <v>3543</v>
+        <v>3547</v>
       </c>
       <c r="D1520" t="s">
-        <v>3544</v>
+        <v>3548</v>
       </c>
       <c r="E1520" t="s">
-        <v>3545</v>
+        <v>3549</v>
       </c>
       <c r="F1520" t="s">
         <v>5652</v>
@@ -53173,19 +53142,16 @@
         <v>5653</v>
       </c>
       <c r="B1521" t="s">
-        <v>3546</v>
-      </c>
-      <c r="C1521" t="s">
-        <v>3547</v>
+        <v>5622</v>
       </c>
       <c r="D1521" t="s">
-        <v>3548</v>
+        <v>5623</v>
       </c>
       <c r="E1521" t="s">
-        <v>3549</v>
+        <v>5624</v>
       </c>
       <c r="F1521" t="s">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="G1521" t="s">
         <v>5654</v>
@@ -53196,16 +53162,19 @@
         <v>5653</v>
       </c>
       <c r="B1522" t="s">
-        <v>5622</v>
+        <v>3587</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>3588</v>
       </c>
       <c r="D1522" t="s">
-        <v>5623</v>
+        <v>3589</v>
       </c>
       <c r="E1522" t="s">
-        <v>5624</v>
+        <v>3590</v>
       </c>
       <c r="F1522" t="s">
-        <v>0</v>
+        <v>5652</v>
       </c>
       <c r="G1522" t="s">
         <v>5654</v>
@@ -53216,16 +53185,16 @@
         <v>5653</v>
       </c>
       <c r="B1523" t="s">
-        <v>3587</v>
+        <v>3719</v>
       </c>
       <c r="C1523" t="s">
-        <v>3588</v>
+        <v>3720</v>
       </c>
       <c r="D1523" t="s">
-        <v>3589</v>
+        <v>3721</v>
       </c>
       <c r="E1523" t="s">
-        <v>3590</v>
+        <v>3722</v>
       </c>
       <c r="F1523" t="s">
         <v>5652</v>
@@ -53239,16 +53208,16 @@
         <v>5653</v>
       </c>
       <c r="B1524" t="s">
-        <v>3719</v>
+        <v>3825</v>
       </c>
       <c r="C1524" t="s">
-        <v>3720</v>
+        <v>3826</v>
       </c>
       <c r="D1524" t="s">
-        <v>3721</v>
+        <v>3827</v>
       </c>
       <c r="E1524" t="s">
-        <v>3722</v>
+        <v>3828</v>
       </c>
       <c r="F1524" t="s">
         <v>5652</v>
@@ -53262,16 +53231,16 @@
         <v>5653</v>
       </c>
       <c r="B1525" t="s">
-        <v>3825</v>
+        <v>3845</v>
       </c>
       <c r="C1525" t="s">
-        <v>3826</v>
+        <v>3846</v>
       </c>
       <c r="D1525" t="s">
-        <v>3827</v>
+        <v>3847</v>
       </c>
       <c r="E1525" t="s">
-        <v>3828</v>
+        <v>3848</v>
       </c>
       <c r="F1525" t="s">
         <v>5652</v>
@@ -53285,16 +53254,16 @@
         <v>5653</v>
       </c>
       <c r="B1526" t="s">
-        <v>3845</v>
+        <v>3911</v>
       </c>
       <c r="C1526" t="s">
-        <v>3846</v>
+        <v>3912</v>
       </c>
       <c r="D1526" t="s">
-        <v>3847</v>
+        <v>3913</v>
       </c>
       <c r="E1526" t="s">
-        <v>3848</v>
+        <v>3914</v>
       </c>
       <c r="F1526" t="s">
         <v>5652</v>
@@ -53308,16 +53277,16 @@
         <v>5653</v>
       </c>
       <c r="B1527" t="s">
-        <v>3911</v>
+        <v>4081</v>
       </c>
       <c r="C1527" t="s">
-        <v>3912</v>
+        <v>4082</v>
       </c>
       <c r="D1527" t="s">
-        <v>3913</v>
+        <v>4083</v>
       </c>
       <c r="E1527" t="s">
-        <v>3914</v>
+        <v>4084</v>
       </c>
       <c r="F1527" t="s">
         <v>5652</v>
@@ -53331,16 +53300,16 @@
         <v>5653</v>
       </c>
       <c r="B1528" t="s">
-        <v>4081</v>
+        <v>4313</v>
       </c>
       <c r="C1528" t="s">
-        <v>4082</v>
+        <v>4314</v>
       </c>
       <c r="D1528" t="s">
-        <v>4083</v>
+        <v>4315</v>
       </c>
       <c r="E1528" t="s">
-        <v>4084</v>
+        <v>4316</v>
       </c>
       <c r="F1528" t="s">
         <v>5652</v>
@@ -53354,19 +53323,16 @@
         <v>5653</v>
       </c>
       <c r="B1529" t="s">
-        <v>4313</v>
-      </c>
-      <c r="C1529" t="s">
-        <v>4314</v>
+        <v>5625</v>
       </c>
       <c r="D1529" t="s">
-        <v>4315</v>
+        <v>5626</v>
       </c>
       <c r="E1529" t="s">
-        <v>4316</v>
+        <v>5627</v>
       </c>
       <c r="F1529" t="s">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="G1529" t="s">
         <v>5654</v>
@@ -53377,16 +53343,19 @@
         <v>5653</v>
       </c>
       <c r="B1530" t="s">
-        <v>5625</v>
+        <v>4369</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>4370</v>
       </c>
       <c r="D1530" t="s">
-        <v>5626</v>
+        <v>4371</v>
       </c>
       <c r="E1530" t="s">
-        <v>5627</v>
+        <v>4372</v>
       </c>
       <c r="F1530" t="s">
-        <v>0</v>
+        <v>5652</v>
       </c>
       <c r="G1530" t="s">
         <v>5654</v>
@@ -53397,19 +53366,16 @@
         <v>5653</v>
       </c>
       <c r="B1531" t="s">
-        <v>4369</v>
-      </c>
-      <c r="C1531" t="s">
-        <v>4370</v>
+        <v>5628</v>
       </c>
       <c r="D1531" t="s">
-        <v>4371</v>
+        <v>5629</v>
       </c>
       <c r="E1531" t="s">
-        <v>4372</v>
+        <v>5630</v>
       </c>
       <c r="F1531" t="s">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="G1531" t="s">
         <v>5654</v>
@@ -53420,16 +53386,19 @@
         <v>5653</v>
       </c>
       <c r="B1532" t="s">
-        <v>5628</v>
+        <v>4403</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>4404</v>
       </c>
       <c r="D1532" t="s">
-        <v>5629</v>
+        <v>4405</v>
       </c>
       <c r="E1532" t="s">
-        <v>5630</v>
+        <v>4406</v>
       </c>
       <c r="F1532" t="s">
-        <v>0</v>
+        <v>5652</v>
       </c>
       <c r="G1532" t="s">
         <v>5654</v>
@@ -53440,16 +53409,16 @@
         <v>5653</v>
       </c>
       <c r="B1533" t="s">
-        <v>4403</v>
+        <v>4473</v>
       </c>
       <c r="C1533" t="s">
-        <v>4404</v>
+        <v>4474</v>
       </c>
       <c r="D1533" t="s">
-        <v>4405</v>
+        <v>4475</v>
       </c>
       <c r="E1533" t="s">
-        <v>4406</v>
+        <v>4476</v>
       </c>
       <c r="F1533" t="s">
         <v>5652</v>
@@ -53463,16 +53432,16 @@
         <v>5653</v>
       </c>
       <c r="B1534" t="s">
-        <v>4473</v>
+        <v>4561</v>
       </c>
       <c r="C1534" t="s">
-        <v>4474</v>
+        <v>4562</v>
       </c>
       <c r="D1534" t="s">
-        <v>4475</v>
+        <v>4563</v>
       </c>
       <c r="E1534" t="s">
-        <v>4476</v>
+        <v>4564</v>
       </c>
       <c r="F1534" t="s">
         <v>5652</v>
@@ -53486,16 +53455,16 @@
         <v>5653</v>
       </c>
       <c r="B1535" t="s">
-        <v>4561</v>
+        <v>4585</v>
       </c>
       <c r="C1535" t="s">
-        <v>4562</v>
+        <v>4586</v>
       </c>
       <c r="D1535" t="s">
-        <v>4563</v>
+        <v>4587</v>
       </c>
       <c r="E1535" t="s">
-        <v>4564</v>
+        <v>4588</v>
       </c>
       <c r="F1535" t="s">
         <v>5652</v>
@@ -53509,16 +53478,16 @@
         <v>5653</v>
       </c>
       <c r="B1536" t="s">
-        <v>4585</v>
+        <v>4699</v>
       </c>
       <c r="C1536" t="s">
-        <v>4586</v>
+        <v>4700</v>
       </c>
       <c r="D1536" t="s">
-        <v>4587</v>
+        <v>4701</v>
       </c>
       <c r="E1536" t="s">
-        <v>4588</v>
+        <v>4702</v>
       </c>
       <c r="F1536" t="s">
         <v>5652</v>
@@ -53532,16 +53501,16 @@
         <v>5653</v>
       </c>
       <c r="B1537" t="s">
-        <v>4699</v>
+        <v>4707</v>
       </c>
       <c r="C1537" t="s">
-        <v>4700</v>
+        <v>4708</v>
       </c>
       <c r="D1537" t="s">
-        <v>4701</v>
+        <v>4709</v>
       </c>
       <c r="E1537" t="s">
-        <v>4702</v>
+        <v>4710</v>
       </c>
       <c r="F1537" t="s">
         <v>5652</v>
@@ -53555,16 +53524,16 @@
         <v>5653</v>
       </c>
       <c r="B1538" t="s">
-        <v>4707</v>
+        <v>4831</v>
       </c>
       <c r="C1538" t="s">
-        <v>4708</v>
+        <v>4832</v>
       </c>
       <c r="D1538" t="s">
-        <v>4709</v>
+        <v>4833</v>
       </c>
       <c r="E1538" t="s">
-        <v>4710</v>
+        <v>4834</v>
       </c>
       <c r="F1538" t="s">
         <v>5652</v>
@@ -53578,16 +53547,16 @@
         <v>5653</v>
       </c>
       <c r="B1539" t="s">
-        <v>4831</v>
+        <v>4839</v>
       </c>
       <c r="C1539" t="s">
-        <v>4832</v>
+        <v>4840</v>
       </c>
       <c r="D1539" t="s">
-        <v>4833</v>
+        <v>4841</v>
       </c>
       <c r="E1539" t="s">
-        <v>4834</v>
+        <v>4842</v>
       </c>
       <c r="F1539" t="s">
         <v>5652</v>
@@ -53601,16 +53570,16 @@
         <v>5653</v>
       </c>
       <c r="B1540" t="s">
-        <v>4839</v>
+        <v>4902</v>
       </c>
       <c r="C1540" t="s">
-        <v>4840</v>
+        <v>4903</v>
       </c>
       <c r="D1540" t="s">
-        <v>4841</v>
+        <v>4904</v>
       </c>
       <c r="E1540" t="s">
-        <v>4842</v>
+        <v>4905</v>
       </c>
       <c r="F1540" t="s">
         <v>5652</v>
@@ -53624,16 +53593,16 @@
         <v>5653</v>
       </c>
       <c r="B1541" t="s">
-        <v>4902</v>
+        <v>5168</v>
       </c>
       <c r="C1541" t="s">
-        <v>4903</v>
+        <v>5169</v>
       </c>
       <c r="D1541" t="s">
-        <v>4904</v>
+        <v>5170</v>
       </c>
       <c r="E1541" t="s">
-        <v>4905</v>
+        <v>5171</v>
       </c>
       <c r="F1541" t="s">
         <v>5652</v>
@@ -53647,19 +53616,16 @@
         <v>5653</v>
       </c>
       <c r="B1542" t="s">
-        <v>5168</v>
-      </c>
-      <c r="C1542" t="s">
-        <v>5169</v>
+        <v>5631</v>
       </c>
       <c r="D1542" t="s">
-        <v>5170</v>
+        <v>5632</v>
       </c>
       <c r="E1542" t="s">
-        <v>5171</v>
+        <v>5633</v>
       </c>
       <c r="F1542" t="s">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="G1542" t="s">
         <v>5654</v>
@@ -53670,16 +53636,19 @@
         <v>5653</v>
       </c>
       <c r="B1543" t="s">
-        <v>5631</v>
+        <v>4994</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>4995</v>
       </c>
       <c r="D1543" t="s">
-        <v>5632</v>
+        <v>4996</v>
       </c>
       <c r="E1543" t="s">
-        <v>5633</v>
+        <v>4997</v>
       </c>
       <c r="F1543" t="s">
-        <v>0</v>
+        <v>5652</v>
       </c>
       <c r="G1543" t="s">
         <v>5654</v>
@@ -53690,16 +53659,16 @@
         <v>5653</v>
       </c>
       <c r="B1544" t="s">
-        <v>4994</v>
+        <v>4998</v>
       </c>
       <c r="C1544" t="s">
-        <v>4995</v>
+        <v>4999</v>
       </c>
       <c r="D1544" t="s">
-        <v>4996</v>
+        <v>5000</v>
       </c>
       <c r="E1544" t="s">
-        <v>4997</v>
+        <v>5001</v>
       </c>
       <c r="F1544" t="s">
         <v>5652</v>
@@ -53713,19 +53682,16 @@
         <v>5653</v>
       </c>
       <c r="B1545" t="s">
-        <v>4998</v>
-      </c>
-      <c r="C1545" t="s">
-        <v>4999</v>
+        <v>5634</v>
       </c>
       <c r="D1545" t="s">
-        <v>5000</v>
+        <v>5635</v>
       </c>
       <c r="E1545" t="s">
-        <v>5001</v>
+        <v>5636</v>
       </c>
       <c r="F1545" t="s">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="G1545" t="s">
         <v>5654</v>
@@ -53736,16 +53702,19 @@
         <v>5653</v>
       </c>
       <c r="B1546" t="s">
-        <v>5634</v>
+        <v>5002</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>5003</v>
       </c>
       <c r="D1546" t="s">
-        <v>5635</v>
+        <v>5004</v>
       </c>
       <c r="E1546" t="s">
-        <v>5636</v>
+        <v>5005</v>
       </c>
       <c r="F1546" t="s">
-        <v>0</v>
+        <v>5652</v>
       </c>
       <c r="G1546" t="s">
         <v>5654</v>
@@ -53756,16 +53725,16 @@
         <v>5653</v>
       </c>
       <c r="B1547" t="s">
-        <v>5002</v>
+        <v>5006</v>
       </c>
       <c r="C1547" t="s">
-        <v>5003</v>
+        <v>5007</v>
       </c>
       <c r="D1547" t="s">
-        <v>5004</v>
+        <v>5008</v>
       </c>
       <c r="E1547" t="s">
-        <v>5005</v>
+        <v>5009</v>
       </c>
       <c r="F1547" t="s">
         <v>5652</v>
@@ -53779,16 +53748,16 @@
         <v>5653</v>
       </c>
       <c r="B1548" t="s">
-        <v>5006</v>
+        <v>5010</v>
       </c>
       <c r="C1548" t="s">
-        <v>5007</v>
+        <v>5011</v>
       </c>
       <c r="D1548" t="s">
-        <v>5008</v>
+        <v>5012</v>
       </c>
       <c r="E1548" t="s">
-        <v>5009</v>
+        <v>5013</v>
       </c>
       <c r="F1548" t="s">
         <v>5652</v>
@@ -53802,16 +53771,16 @@
         <v>5653</v>
       </c>
       <c r="B1549" t="s">
-        <v>5010</v>
+        <v>5014</v>
       </c>
       <c r="C1549" t="s">
-        <v>5011</v>
+        <v>44</v>
       </c>
       <c r="D1549" t="s">
-        <v>5012</v>
+        <v>5015</v>
       </c>
       <c r="E1549" t="s">
-        <v>5013</v>
+        <v>5016</v>
       </c>
       <c r="F1549" t="s">
         <v>5652</v>
@@ -53825,16 +53794,16 @@
         <v>5653</v>
       </c>
       <c r="B1550" t="s">
-        <v>5014</v>
+        <v>5017</v>
       </c>
       <c r="C1550" t="s">
-        <v>44</v>
+        <v>5018</v>
       </c>
       <c r="D1550" t="s">
-        <v>5015</v>
+        <v>5019</v>
       </c>
       <c r="E1550" t="s">
-        <v>5016</v>
+        <v>5020</v>
       </c>
       <c r="F1550" t="s">
         <v>5652</v>
@@ -53848,16 +53817,16 @@
         <v>5653</v>
       </c>
       <c r="B1551" t="s">
-        <v>5017</v>
+        <v>5021</v>
       </c>
       <c r="C1551" t="s">
-        <v>5018</v>
+        <v>5022</v>
       </c>
       <c r="D1551" t="s">
-        <v>5019</v>
+        <v>5023</v>
       </c>
       <c r="E1551" t="s">
-        <v>5020</v>
+        <v>5024</v>
       </c>
       <c r="F1551" t="s">
         <v>5652</v>
@@ -53871,16 +53840,16 @@
         <v>5653</v>
       </c>
       <c r="B1552" t="s">
-        <v>5021</v>
+        <v>5025</v>
       </c>
       <c r="C1552" t="s">
-        <v>5022</v>
+        <v>5026</v>
       </c>
       <c r="D1552" t="s">
-        <v>5023</v>
+        <v>5027</v>
       </c>
       <c r="E1552" t="s">
-        <v>5024</v>
+        <v>5028</v>
       </c>
       <c r="F1552" t="s">
         <v>5652</v>
@@ -53894,16 +53863,16 @@
         <v>5653</v>
       </c>
       <c r="B1553" t="s">
-        <v>5025</v>
+        <v>5029</v>
       </c>
       <c r="C1553" t="s">
-        <v>5026</v>
+        <v>5030</v>
       </c>
       <c r="D1553" t="s">
-        <v>5027</v>
+        <v>5031</v>
       </c>
       <c r="E1553" t="s">
-        <v>5028</v>
+        <v>5032</v>
       </c>
       <c r="F1553" t="s">
         <v>5652</v>
@@ -53917,19 +53886,16 @@
         <v>5653</v>
       </c>
       <c r="B1554" t="s">
-        <v>5029</v>
-      </c>
-      <c r="C1554" t="s">
-        <v>5030</v>
+        <v>5637</v>
       </c>
       <c r="D1554" t="s">
-        <v>5031</v>
+        <v>5638</v>
       </c>
       <c r="E1554" t="s">
-        <v>5032</v>
+        <v>5639</v>
       </c>
       <c r="F1554" t="s">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="G1554" t="s">
         <v>5654</v>
@@ -53940,16 +53906,19 @@
         <v>5653</v>
       </c>
       <c r="B1555" t="s">
-        <v>5637</v>
+        <v>5033</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>5034</v>
       </c>
       <c r="D1555" t="s">
-        <v>5638</v>
+        <v>5035</v>
       </c>
       <c r="E1555" t="s">
-        <v>5639</v>
+        <v>5036</v>
       </c>
       <c r="F1555" t="s">
-        <v>0</v>
+        <v>5652</v>
       </c>
       <c r="G1555" t="s">
         <v>5654</v>
@@ -53960,16 +53929,16 @@
         <v>5653</v>
       </c>
       <c r="B1556" t="s">
-        <v>5033</v>
+        <v>5037</v>
       </c>
       <c r="C1556" t="s">
-        <v>5034</v>
+        <v>5038</v>
       </c>
       <c r="D1556" t="s">
-        <v>5035</v>
+        <v>5039</v>
       </c>
       <c r="E1556" t="s">
-        <v>5036</v>
+        <v>5040</v>
       </c>
       <c r="F1556" t="s">
         <v>5652</v>
@@ -53983,16 +53952,16 @@
         <v>5653</v>
       </c>
       <c r="B1557" t="s">
-        <v>5037</v>
+        <v>5041</v>
       </c>
       <c r="C1557" t="s">
-        <v>5038</v>
+        <v>5042</v>
       </c>
       <c r="D1557" t="s">
-        <v>5039</v>
+        <v>5043</v>
       </c>
       <c r="E1557" t="s">
-        <v>5040</v>
+        <v>5044</v>
       </c>
       <c r="F1557" t="s">
         <v>5652</v>
@@ -54006,16 +53975,16 @@
         <v>5653</v>
       </c>
       <c r="B1558" t="s">
-        <v>5041</v>
+        <v>5045</v>
       </c>
       <c r="C1558" t="s">
-        <v>5042</v>
+        <v>5046</v>
       </c>
       <c r="D1558" t="s">
-        <v>5043</v>
+        <v>5047</v>
       </c>
       <c r="E1558" t="s">
-        <v>5044</v>
+        <v>5048</v>
       </c>
       <c r="F1558" t="s">
         <v>5652</v>
@@ -54029,16 +53998,16 @@
         <v>5653</v>
       </c>
       <c r="B1559" t="s">
-        <v>5045</v>
+        <v>5049</v>
       </c>
       <c r="C1559" t="s">
-        <v>5046</v>
+        <v>5050</v>
       </c>
       <c r="D1559" t="s">
-        <v>5047</v>
+        <v>5051</v>
       </c>
       <c r="E1559" t="s">
-        <v>5048</v>
+        <v>5052</v>
       </c>
       <c r="F1559" t="s">
         <v>5652</v>
@@ -54052,16 +54021,16 @@
         <v>5653</v>
       </c>
       <c r="B1560" t="s">
-        <v>5049</v>
+        <v>5053</v>
       </c>
       <c r="C1560" t="s">
-        <v>5050</v>
+        <v>5054</v>
       </c>
       <c r="D1560" t="s">
-        <v>5051</v>
+        <v>5055</v>
       </c>
       <c r="E1560" t="s">
-        <v>5052</v>
+        <v>5056</v>
       </c>
       <c r="F1560" t="s">
         <v>5652</v>
@@ -54075,19 +54044,16 @@
         <v>5653</v>
       </c>
       <c r="B1561" t="s">
-        <v>5053</v>
-      </c>
-      <c r="C1561" t="s">
-        <v>5054</v>
+        <v>5640</v>
       </c>
       <c r="D1561" t="s">
-        <v>5055</v>
+        <v>5641</v>
       </c>
       <c r="E1561" t="s">
-        <v>5056</v>
+        <v>5642</v>
       </c>
       <c r="F1561" t="s">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="G1561" t="s">
         <v>5654</v>
@@ -54098,16 +54064,19 @@
         <v>5653</v>
       </c>
       <c r="B1562" t="s">
-        <v>5640</v>
+        <v>5057</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>5058</v>
       </c>
       <c r="D1562" t="s">
-        <v>5641</v>
+        <v>5059</v>
       </c>
       <c r="E1562" t="s">
-        <v>5642</v>
+        <v>5060</v>
       </c>
       <c r="F1562" t="s">
-        <v>0</v>
+        <v>5652</v>
       </c>
       <c r="G1562" t="s">
         <v>5654</v>
@@ -54118,16 +54087,16 @@
         <v>5653</v>
       </c>
       <c r="B1563" t="s">
-        <v>5057</v>
+        <v>5061</v>
       </c>
       <c r="C1563" t="s">
-        <v>5058</v>
+        <v>5062</v>
       </c>
       <c r="D1563" t="s">
-        <v>5059</v>
+        <v>5063</v>
       </c>
       <c r="E1563" t="s">
-        <v>5060</v>
+        <v>5064</v>
       </c>
       <c r="F1563" t="s">
         <v>5652</v>
@@ -54141,16 +54110,16 @@
         <v>5653</v>
       </c>
       <c r="B1564" t="s">
-        <v>5061</v>
+        <v>5065</v>
       </c>
       <c r="C1564" t="s">
-        <v>5062</v>
+        <v>5066</v>
       </c>
       <c r="D1564" t="s">
-        <v>5063</v>
+        <v>5067</v>
       </c>
       <c r="E1564" t="s">
-        <v>5064</v>
+        <v>5068</v>
       </c>
       <c r="F1564" t="s">
         <v>5652</v>
@@ -54164,19 +54133,16 @@
         <v>5653</v>
       </c>
       <c r="B1565" t="s">
-        <v>5065</v>
-      </c>
-      <c r="C1565" t="s">
-        <v>5066</v>
+        <v>6042</v>
       </c>
       <c r="D1565" t="s">
-        <v>5067</v>
+        <v>6043</v>
       </c>
       <c r="E1565" t="s">
-        <v>5068</v>
+        <v>6044</v>
       </c>
       <c r="F1565" t="s">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="G1565" t="s">
         <v>5654</v>
@@ -54187,13 +54153,13 @@
         <v>5653</v>
       </c>
       <c r="B1566" t="s">
-        <v>6042</v>
+        <v>5643</v>
       </c>
       <c r="D1566" t="s">
-        <v>6043</v>
+        <v>5644</v>
       </c>
       <c r="E1566" t="s">
-        <v>6044</v>
+        <v>5645</v>
       </c>
       <c r="F1566" t="s">
         <v>0</v>
@@ -54207,13 +54173,13 @@
         <v>5653</v>
       </c>
       <c r="B1567" t="s">
-        <v>5643</v>
+        <v>5646</v>
       </c>
       <c r="D1567" t="s">
-        <v>5644</v>
+        <v>5647</v>
       </c>
       <c r="E1567" t="s">
-        <v>5645</v>
+        <v>5648</v>
       </c>
       <c r="F1567" t="s">
         <v>0</v>
@@ -54227,16 +54193,19 @@
         <v>5653</v>
       </c>
       <c r="B1568" t="s">
-        <v>5646</v>
+        <v>5785</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>5786</v>
       </c>
       <c r="D1568" t="s">
-        <v>5647</v>
+        <v>5905</v>
       </c>
       <c r="E1568" t="s">
-        <v>5648</v>
+        <v>5906</v>
       </c>
       <c r="F1568" t="s">
-        <v>0</v>
+        <v>5652</v>
       </c>
       <c r="G1568" t="s">
         <v>5654</v>
@@ -54247,16 +54216,16 @@
         <v>5653</v>
       </c>
       <c r="B1569" t="s">
-        <v>5785</v>
+        <v>5104</v>
       </c>
       <c r="C1569" t="s">
-        <v>5786</v>
+        <v>5105</v>
       </c>
       <c r="D1569" t="s">
-        <v>5905</v>
+        <v>5106</v>
       </c>
       <c r="E1569" t="s">
-        <v>5906</v>
+        <v>5107</v>
       </c>
       <c r="F1569" t="s">
         <v>5652</v>
@@ -54270,16 +54239,16 @@
         <v>5653</v>
       </c>
       <c r="B1570" t="s">
-        <v>5104</v>
+        <v>5108</v>
       </c>
       <c r="C1570" t="s">
-        <v>5105</v>
+        <v>5109</v>
       </c>
       <c r="D1570" t="s">
-        <v>5106</v>
+        <v>5110</v>
       </c>
       <c r="E1570" t="s">
-        <v>5107</v>
+        <v>5111</v>
       </c>
       <c r="F1570" t="s">
         <v>5652</v>
@@ -54293,16 +54262,16 @@
         <v>5653</v>
       </c>
       <c r="B1571" t="s">
-        <v>5108</v>
+        <v>5112</v>
       </c>
       <c r="C1571" t="s">
-        <v>5109</v>
+        <v>5113</v>
       </c>
       <c r="D1571" t="s">
-        <v>5110</v>
+        <v>5114</v>
       </c>
       <c r="E1571" t="s">
-        <v>5111</v>
+        <v>5115</v>
       </c>
       <c r="F1571" t="s">
         <v>5652</v>
@@ -54316,16 +54285,16 @@
         <v>5653</v>
       </c>
       <c r="B1572" t="s">
-        <v>5112</v>
+        <v>5116</v>
       </c>
       <c r="C1572" t="s">
-        <v>5113</v>
+        <v>5117</v>
       </c>
       <c r="D1572" t="s">
-        <v>5114</v>
+        <v>5118</v>
       </c>
       <c r="E1572" t="s">
-        <v>5115</v>
+        <v>5119</v>
       </c>
       <c r="F1572" t="s">
         <v>5652</v>
@@ -54339,16 +54308,16 @@
         <v>5653</v>
       </c>
       <c r="B1573" t="s">
-        <v>5116</v>
+        <v>5120</v>
       </c>
       <c r="C1573" t="s">
-        <v>5117</v>
+        <v>5121</v>
       </c>
       <c r="D1573" t="s">
-        <v>5118</v>
+        <v>5122</v>
       </c>
       <c r="E1573" t="s">
-        <v>5119</v>
+        <v>5123</v>
       </c>
       <c r="F1573" t="s">
         <v>5652</v>
@@ -54362,16 +54331,16 @@
         <v>5653</v>
       </c>
       <c r="B1574" t="s">
-        <v>5120</v>
+        <v>5124</v>
       </c>
       <c r="C1574" t="s">
-        <v>5121</v>
+        <v>5125</v>
       </c>
       <c r="D1574" t="s">
-        <v>5122</v>
+        <v>5126</v>
       </c>
       <c r="E1574" t="s">
-        <v>5123</v>
+        <v>5127</v>
       </c>
       <c r="F1574" t="s">
         <v>5652</v>
@@ -54385,16 +54354,16 @@
         <v>5653</v>
       </c>
       <c r="B1575" t="s">
-        <v>5124</v>
+        <v>5069</v>
       </c>
       <c r="C1575" t="s">
-        <v>5125</v>
+        <v>5070</v>
       </c>
       <c r="D1575" t="s">
-        <v>5126</v>
+        <v>5071</v>
       </c>
       <c r="E1575" t="s">
-        <v>5127</v>
+        <v>5072</v>
       </c>
       <c r="F1575" t="s">
         <v>5652</v>
@@ -54408,16 +54377,16 @@
         <v>5653</v>
       </c>
       <c r="B1576" t="s">
-        <v>5069</v>
+        <v>5073</v>
       </c>
       <c r="C1576" t="s">
-        <v>5070</v>
+        <v>5074</v>
       </c>
       <c r="D1576" t="s">
-        <v>5071</v>
+        <v>5075</v>
       </c>
       <c r="E1576" t="s">
-        <v>5072</v>
+        <v>5076</v>
       </c>
       <c r="F1576" t="s">
         <v>5652</v>
@@ -54431,16 +54400,16 @@
         <v>5653</v>
       </c>
       <c r="B1577" t="s">
-        <v>5073</v>
+        <v>5077</v>
       </c>
       <c r="C1577" t="s">
-        <v>5074</v>
+        <v>5078</v>
       </c>
       <c r="D1577" t="s">
-        <v>5075</v>
+        <v>5079</v>
       </c>
       <c r="E1577" t="s">
-        <v>5076</v>
+        <v>5080</v>
       </c>
       <c r="F1577" t="s">
         <v>5652</v>
@@ -54454,19 +54423,16 @@
         <v>5653</v>
       </c>
       <c r="B1578" t="s">
-        <v>5077</v>
-      </c>
-      <c r="C1578" t="s">
-        <v>5078</v>
+        <v>5649</v>
       </c>
       <c r="D1578" t="s">
-        <v>5079</v>
+        <v>5650</v>
       </c>
       <c r="E1578" t="s">
-        <v>5080</v>
+        <v>5651</v>
       </c>
       <c r="F1578" t="s">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="G1578" t="s">
         <v>5654</v>
@@ -54477,16 +54443,19 @@
         <v>5653</v>
       </c>
       <c r="B1579" t="s">
-        <v>5649</v>
+        <v>5081</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>5082</v>
       </c>
       <c r="D1579" t="s">
-        <v>5650</v>
+        <v>5083</v>
       </c>
       <c r="E1579" t="s">
-        <v>5651</v>
+        <v>5084</v>
       </c>
       <c r="F1579" t="s">
-        <v>0</v>
+        <v>5652</v>
       </c>
       <c r="G1579" t="s">
         <v>5654</v>
@@ -54497,16 +54466,16 @@
         <v>5653</v>
       </c>
       <c r="B1580" t="s">
-        <v>5081</v>
+        <v>5085</v>
       </c>
       <c r="C1580" t="s">
-        <v>5082</v>
+        <v>5086</v>
       </c>
       <c r="D1580" t="s">
-        <v>5083</v>
+        <v>5087</v>
       </c>
       <c r="E1580" t="s">
-        <v>5084</v>
+        <v>5088</v>
       </c>
       <c r="F1580" t="s">
         <v>5652</v>
@@ -54520,16 +54489,16 @@
         <v>5653</v>
       </c>
       <c r="B1581" t="s">
-        <v>5085</v>
+        <v>5787</v>
       </c>
       <c r="C1581" t="s">
-        <v>5086</v>
+        <v>5788</v>
       </c>
       <c r="D1581" t="s">
-        <v>5087</v>
+        <v>5907</v>
       </c>
       <c r="E1581" t="s">
-        <v>5088</v>
+        <v>5908</v>
       </c>
       <c r="F1581" t="s">
         <v>5652</v>
@@ -54543,16 +54512,13 @@
         <v>5653</v>
       </c>
       <c r="B1582" t="s">
-        <v>5787</v>
-      </c>
-      <c r="C1582" t="s">
-        <v>5788</v>
+        <v>5789</v>
       </c>
       <c r="D1582" t="s">
-        <v>5907</v>
+        <v>5909</v>
       </c>
       <c r="E1582" t="s">
-        <v>5908</v>
+        <v>5910</v>
       </c>
       <c r="F1582" t="s">
         <v>5652</v>
@@ -54566,16 +54532,16 @@
         <v>5653</v>
       </c>
       <c r="B1583" t="s">
-        <v>5789</v>
+        <v>5790</v>
       </c>
       <c r="D1583" t="s">
-        <v>5909</v>
+        <v>5791</v>
       </c>
       <c r="E1583" t="s">
-        <v>5910</v>
+        <v>5911</v>
       </c>
       <c r="F1583" t="s">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="G1583" t="s">
         <v>5654</v>
@@ -54586,16 +54552,19 @@
         <v>5653</v>
       </c>
       <c r="B1584" t="s">
-        <v>5790</v>
+        <v>5089</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>5090</v>
       </c>
       <c r="D1584" t="s">
-        <v>5791</v>
+        <v>5091</v>
       </c>
       <c r="E1584" t="s">
-        <v>5911</v>
+        <v>5092</v>
       </c>
       <c r="F1584" t="s">
-        <v>0</v>
+        <v>5652</v>
       </c>
       <c r="G1584" t="s">
         <v>5654</v>
@@ -54606,16 +54575,16 @@
         <v>5653</v>
       </c>
       <c r="B1585" t="s">
-        <v>5089</v>
+        <v>5093</v>
       </c>
       <c r="C1585" t="s">
-        <v>5090</v>
+        <v>44</v>
       </c>
       <c r="D1585" t="s">
-        <v>5091</v>
+        <v>5094</v>
       </c>
       <c r="E1585" t="s">
-        <v>5092</v>
+        <v>5095</v>
       </c>
       <c r="F1585" t="s">
         <v>5652</v>
@@ -54629,19 +54598,16 @@
         <v>5653</v>
       </c>
       <c r="B1586" t="s">
-        <v>5093</v>
-      </c>
-      <c r="C1586" t="s">
-        <v>44</v>
+        <v>5792</v>
       </c>
       <c r="D1586" t="s">
-        <v>5094</v>
+        <v>5912</v>
       </c>
       <c r="E1586" t="s">
-        <v>5095</v>
+        <v>5913</v>
       </c>
       <c r="F1586" t="s">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="G1586" t="s">
         <v>5654</v>
@@ -54652,13 +54618,13 @@
         <v>5653</v>
       </c>
       <c r="B1587" t="s">
-        <v>5792</v>
+        <v>6045</v>
       </c>
       <c r="D1587" t="s">
-        <v>5912</v>
+        <v>6046</v>
       </c>
       <c r="E1587" t="s">
-        <v>5913</v>
+        <v>6047</v>
       </c>
       <c r="F1587" t="s">
         <v>0</v>
@@ -54672,16 +54638,19 @@
         <v>5653</v>
       </c>
       <c r="B1588" t="s">
-        <v>6045</v>
+        <v>5128</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>5129</v>
       </c>
       <c r="D1588" t="s">
-        <v>6046</v>
+        <v>5130</v>
       </c>
       <c r="E1588" t="s">
-        <v>6047</v>
+        <v>5131</v>
       </c>
       <c r="F1588" t="s">
-        <v>0</v>
+        <v>5652</v>
       </c>
       <c r="G1588" t="s">
         <v>5654</v>
@@ -54692,16 +54661,16 @@
         <v>5653</v>
       </c>
       <c r="B1589" t="s">
-        <v>5128</v>
+        <v>5132</v>
       </c>
       <c r="C1589" t="s">
-        <v>5129</v>
+        <v>44</v>
       </c>
       <c r="D1589" t="s">
-        <v>5130</v>
+        <v>5941</v>
       </c>
       <c r="E1589" t="s">
-        <v>5131</v>
+        <v>5133</v>
       </c>
       <c r="F1589" t="s">
         <v>5652</v>
@@ -54715,16 +54684,16 @@
         <v>5653</v>
       </c>
       <c r="B1590" t="s">
-        <v>5132</v>
+        <v>5134</v>
       </c>
       <c r="C1590" t="s">
-        <v>44</v>
+        <v>5135</v>
       </c>
       <c r="D1590" t="s">
-        <v>5941</v>
+        <v>5945</v>
       </c>
       <c r="E1590" t="s">
-        <v>5133</v>
+        <v>5136</v>
       </c>
       <c r="F1590" t="s">
         <v>5652</v>
@@ -54738,16 +54707,16 @@
         <v>5653</v>
       </c>
       <c r="B1591" t="s">
-        <v>5134</v>
+        <v>5137</v>
       </c>
       <c r="C1591" t="s">
-        <v>5135</v>
+        <v>5138</v>
       </c>
       <c r="D1591" t="s">
-        <v>5945</v>
+        <v>5946</v>
       </c>
       <c r="E1591" t="s">
-        <v>5136</v>
+        <v>5139</v>
       </c>
       <c r="F1591" t="s">
         <v>5652</v>
@@ -54761,16 +54730,16 @@
         <v>5653</v>
       </c>
       <c r="B1592" t="s">
-        <v>5137</v>
+        <v>5140</v>
       </c>
       <c r="C1592" t="s">
-        <v>5138</v>
+        <v>5141</v>
       </c>
       <c r="D1592" t="s">
-        <v>5946</v>
+        <v>5947</v>
       </c>
       <c r="E1592" t="s">
-        <v>5139</v>
+        <v>5142</v>
       </c>
       <c r="F1592" t="s">
         <v>5652</v>
@@ -54784,16 +54753,16 @@
         <v>5653</v>
       </c>
       <c r="B1593" t="s">
-        <v>5140</v>
+        <v>5143</v>
       </c>
       <c r="C1593" t="s">
-        <v>5141</v>
+        <v>5144</v>
       </c>
       <c r="D1593" t="s">
-        <v>5947</v>
+        <v>5948</v>
       </c>
       <c r="E1593" t="s">
-        <v>5142</v>
+        <v>5145</v>
       </c>
       <c r="F1593" t="s">
         <v>5652</v>
@@ -54807,16 +54776,13 @@
         <v>5653</v>
       </c>
       <c r="B1594" t="s">
-        <v>5143</v>
-      </c>
-      <c r="C1594" t="s">
-        <v>5144</v>
+        <v>5146</v>
       </c>
       <c r="D1594" t="s">
-        <v>5948</v>
+        <v>5949</v>
       </c>
       <c r="E1594" t="s">
-        <v>5145</v>
+        <v>5147</v>
       </c>
       <c r="F1594" t="s">
         <v>5652</v>
@@ -54830,13 +54796,16 @@
         <v>5653</v>
       </c>
       <c r="B1595" t="s">
-        <v>5146</v>
+        <v>6100</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>5154</v>
       </c>
       <c r="D1595" t="s">
-        <v>5949</v>
+        <v>6137</v>
       </c>
       <c r="E1595" t="s">
-        <v>5147</v>
+        <v>6138</v>
       </c>
       <c r="F1595" t="s">
         <v>5652</v>
@@ -54850,16 +54819,16 @@
         <v>5653</v>
       </c>
       <c r="B1596" t="s">
-        <v>6102</v>
+        <v>5148</v>
       </c>
       <c r="C1596" t="s">
-        <v>5154</v>
+        <v>5149</v>
       </c>
       <c r="D1596" t="s">
-        <v>6140</v>
+        <v>5950</v>
       </c>
       <c r="E1596" t="s">
-        <v>6141</v>
+        <v>5150</v>
       </c>
       <c r="F1596" t="s">
         <v>5652</v>
@@ -54873,16 +54842,16 @@
         <v>5653</v>
       </c>
       <c r="B1597" t="s">
-        <v>5148</v>
+        <v>5151</v>
       </c>
       <c r="C1597" t="s">
-        <v>5149</v>
+        <v>5152</v>
       </c>
       <c r="D1597" t="s">
-        <v>5950</v>
+        <v>5951</v>
       </c>
       <c r="E1597" t="s">
-        <v>5150</v>
+        <v>5153</v>
       </c>
       <c r="F1597" t="s">
         <v>5652</v>
@@ -54896,16 +54865,16 @@
         <v>5653</v>
       </c>
       <c r="B1598" t="s">
-        <v>5151</v>
+        <v>5155</v>
       </c>
       <c r="C1598" t="s">
-        <v>5152</v>
+        <v>44</v>
       </c>
       <c r="D1598" t="s">
-        <v>5951</v>
+        <v>5952</v>
       </c>
       <c r="E1598" t="s">
-        <v>5153</v>
+        <v>5156</v>
       </c>
       <c r="F1598" t="s">
         <v>5652</v>
@@ -54919,16 +54888,16 @@
         <v>5653</v>
       </c>
       <c r="B1599" t="s">
-        <v>5155</v>
+        <v>5157</v>
       </c>
       <c r="C1599" t="s">
-        <v>44</v>
+        <v>5158</v>
       </c>
       <c r="D1599" t="s">
-        <v>5952</v>
+        <v>5953</v>
       </c>
       <c r="E1599" t="s">
-        <v>5156</v>
+        <v>5159</v>
       </c>
       <c r="F1599" t="s">
         <v>5652</v>
@@ -54942,16 +54911,16 @@
         <v>5653</v>
       </c>
       <c r="B1600" t="s">
-        <v>5157</v>
+        <v>5160</v>
       </c>
       <c r="C1600" t="s">
-        <v>5158</v>
+        <v>5161</v>
       </c>
       <c r="D1600" t="s">
-        <v>5953</v>
+        <v>5162</v>
       </c>
       <c r="E1600" t="s">
-        <v>5159</v>
+        <v>5163</v>
       </c>
       <c r="F1600" t="s">
         <v>5652</v>
@@ -54965,16 +54934,16 @@
         <v>5653</v>
       </c>
       <c r="B1601" t="s">
-        <v>5160</v>
+        <v>5164</v>
       </c>
       <c r="C1601" t="s">
-        <v>5161</v>
+        <v>5165</v>
       </c>
       <c r="D1601" t="s">
-        <v>5162</v>
+        <v>5166</v>
       </c>
       <c r="E1601" t="s">
-        <v>5163</v>
+        <v>5167</v>
       </c>
       <c r="F1601" t="s">
         <v>5652</v>
@@ -54988,16 +54957,16 @@
         <v>5653</v>
       </c>
       <c r="B1602" t="s">
-        <v>5164</v>
+        <v>5096</v>
       </c>
       <c r="C1602" t="s">
-        <v>5165</v>
+        <v>5097</v>
       </c>
       <c r="D1602" t="s">
-        <v>5166</v>
+        <v>5098</v>
       </c>
       <c r="E1602" t="s">
-        <v>5167</v>
+        <v>5099</v>
       </c>
       <c r="F1602" t="s">
         <v>5652</v>
@@ -55011,16 +54980,16 @@
         <v>5653</v>
       </c>
       <c r="B1603" t="s">
-        <v>5096</v>
+        <v>5172</v>
       </c>
       <c r="C1603" t="s">
-        <v>5097</v>
+        <v>5173</v>
       </c>
       <c r="D1603" t="s">
-        <v>5098</v>
+        <v>5174</v>
       </c>
       <c r="E1603" t="s">
-        <v>5099</v>
+        <v>5175</v>
       </c>
       <c r="F1603" t="s">
         <v>5652</v>
@@ -55034,16 +55003,16 @@
         <v>5653</v>
       </c>
       <c r="B1604" t="s">
-        <v>5172</v>
+        <v>5176</v>
       </c>
       <c r="C1604" t="s">
-        <v>5173</v>
+        <v>44</v>
       </c>
       <c r="D1604" t="s">
-        <v>5174</v>
+        <v>5177</v>
       </c>
       <c r="E1604" t="s">
-        <v>5175</v>
+        <v>5178</v>
       </c>
       <c r="F1604" t="s">
         <v>5652</v>
@@ -55057,16 +55026,16 @@
         <v>5653</v>
       </c>
       <c r="B1605" t="s">
-        <v>5176</v>
+        <v>5179</v>
       </c>
       <c r="C1605" t="s">
         <v>44</v>
       </c>
       <c r="D1605" t="s">
-        <v>5177</v>
+        <v>5942</v>
       </c>
       <c r="E1605" t="s">
-        <v>5178</v>
+        <v>5180</v>
       </c>
       <c r="F1605" t="s">
         <v>5652</v>
@@ -55080,16 +55049,16 @@
         <v>5653</v>
       </c>
       <c r="B1606" t="s">
-        <v>5179</v>
+        <v>5181</v>
       </c>
       <c r="C1606" t="s">
         <v>44</v>
       </c>
       <c r="D1606" t="s">
-        <v>5942</v>
+        <v>5182</v>
       </c>
       <c r="E1606" t="s">
-        <v>5180</v>
+        <v>5183</v>
       </c>
       <c r="F1606" t="s">
         <v>5652</v>
@@ -55103,16 +55072,16 @@
         <v>5653</v>
       </c>
       <c r="B1607" t="s">
-        <v>5181</v>
+        <v>5184</v>
       </c>
       <c r="C1607" t="s">
-        <v>44</v>
+        <v>5185</v>
       </c>
       <c r="D1607" t="s">
-        <v>5182</v>
+        <v>5186</v>
       </c>
       <c r="E1607" t="s">
-        <v>5183</v>
+        <v>5187</v>
       </c>
       <c r="F1607" t="s">
         <v>5652</v>
@@ -55126,16 +55095,16 @@
         <v>5653</v>
       </c>
       <c r="B1608" t="s">
-        <v>5184</v>
+        <v>5188</v>
       </c>
       <c r="C1608" t="s">
-        <v>5185</v>
+        <v>5189</v>
       </c>
       <c r="D1608" t="s">
-        <v>5186</v>
+        <v>5190</v>
       </c>
       <c r="E1608" t="s">
-        <v>5187</v>
+        <v>5191</v>
       </c>
       <c r="F1608" t="s">
         <v>5652</v>
@@ -55149,16 +55118,16 @@
         <v>5653</v>
       </c>
       <c r="B1609" t="s">
-        <v>5188</v>
+        <v>5100</v>
       </c>
       <c r="C1609" t="s">
-        <v>5189</v>
+        <v>5101</v>
       </c>
       <c r="D1609" t="s">
-        <v>5190</v>
+        <v>5102</v>
       </c>
       <c r="E1609" t="s">
-        <v>5191</v>
+        <v>5103</v>
       </c>
       <c r="F1609" t="s">
         <v>5652</v>
@@ -55172,16 +55141,16 @@
         <v>5653</v>
       </c>
       <c r="B1610" t="s">
-        <v>5100</v>
+        <v>5192</v>
       </c>
       <c r="C1610" t="s">
-        <v>5101</v>
+        <v>5193</v>
       </c>
       <c r="D1610" t="s">
-        <v>5102</v>
+        <v>5194</v>
       </c>
       <c r="E1610" t="s">
-        <v>5103</v>
+        <v>5195</v>
       </c>
       <c r="F1610" t="s">
         <v>5652</v>
@@ -55195,16 +55164,16 @@
         <v>5653</v>
       </c>
       <c r="B1611" t="s">
-        <v>5192</v>
+        <v>5196</v>
       </c>
       <c r="C1611" t="s">
-        <v>5193</v>
+        <v>5197</v>
       </c>
       <c r="D1611" t="s">
-        <v>5194</v>
+        <v>5198</v>
       </c>
       <c r="E1611" t="s">
-        <v>5195</v>
+        <v>5199</v>
       </c>
       <c r="F1611" t="s">
         <v>5652</v>
@@ -55218,16 +55187,16 @@
         <v>5653</v>
       </c>
       <c r="B1612" t="s">
-        <v>5196</v>
+        <v>5200</v>
       </c>
       <c r="C1612" t="s">
-        <v>5197</v>
+        <v>5201</v>
       </c>
       <c r="D1612" t="s">
-        <v>5198</v>
+        <v>5202</v>
       </c>
       <c r="E1612" t="s">
-        <v>5199</v>
+        <v>5203</v>
       </c>
       <c r="F1612" t="s">
         <v>5652</v>
@@ -55241,16 +55210,16 @@
         <v>5653</v>
       </c>
       <c r="B1613" t="s">
-        <v>5200</v>
+        <v>5204</v>
       </c>
       <c r="C1613" t="s">
-        <v>5201</v>
+        <v>5205</v>
       </c>
       <c r="D1613" t="s">
-        <v>5202</v>
+        <v>5206</v>
       </c>
       <c r="E1613" t="s">
-        <v>5203</v>
+        <v>5207</v>
       </c>
       <c r="F1613" t="s">
         <v>5652</v>
@@ -55264,16 +55233,16 @@
         <v>5653</v>
       </c>
       <c r="B1614" t="s">
-        <v>5204</v>
+        <v>5208</v>
       </c>
       <c r="C1614" t="s">
-        <v>5205</v>
+        <v>5209</v>
       </c>
       <c r="D1614" t="s">
-        <v>5206</v>
+        <v>5944</v>
       </c>
       <c r="E1614" t="s">
-        <v>5207</v>
+        <v>5210</v>
       </c>
       <c r="F1614" t="s">
         <v>5652</v>
@@ -55287,16 +55256,16 @@
         <v>5653</v>
       </c>
       <c r="B1615" t="s">
-        <v>5208</v>
+        <v>5211</v>
       </c>
       <c r="C1615" t="s">
-        <v>5209</v>
+        <v>5212</v>
       </c>
       <c r="D1615" t="s">
-        <v>5944</v>
+        <v>5213</v>
       </c>
       <c r="E1615" t="s">
-        <v>5210</v>
+        <v>5214</v>
       </c>
       <c r="F1615" t="s">
         <v>5652</v>
@@ -55310,16 +55279,16 @@
         <v>5653</v>
       </c>
       <c r="B1616" t="s">
-        <v>5211</v>
+        <v>5215</v>
       </c>
       <c r="C1616" t="s">
-        <v>5212</v>
+        <v>5216</v>
       </c>
       <c r="D1616" t="s">
-        <v>5213</v>
+        <v>5217</v>
       </c>
       <c r="E1616" t="s">
-        <v>5214</v>
+        <v>5218</v>
       </c>
       <c r="F1616" t="s">
         <v>5652</v>
@@ -55333,16 +55302,16 @@
         <v>5653</v>
       </c>
       <c r="B1617" t="s">
-        <v>5215</v>
+        <v>5219</v>
       </c>
       <c r="C1617" t="s">
-        <v>5216</v>
+        <v>5220</v>
       </c>
       <c r="D1617" t="s">
-        <v>5217</v>
+        <v>5221</v>
       </c>
       <c r="E1617" t="s">
-        <v>5218</v>
+        <v>5222</v>
       </c>
       <c r="F1617" t="s">
         <v>5652</v>
@@ -55356,16 +55325,16 @@
         <v>5653</v>
       </c>
       <c r="B1618" t="s">
-        <v>5219</v>
+        <v>5223</v>
       </c>
       <c r="C1618" t="s">
-        <v>5220</v>
+        <v>5224</v>
       </c>
       <c r="D1618" t="s">
-        <v>5221</v>
+        <v>5225</v>
       </c>
       <c r="E1618" t="s">
-        <v>5222</v>
+        <v>5226</v>
       </c>
       <c r="F1618" t="s">
         <v>5652</v>
@@ -55374,47 +55343,24 @@
         <v>5654</v>
       </c>
     </row>
-    <row r="1619" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1619" t="s">
-        <v>5653</v>
-      </c>
-      <c r="B1619" t="s">
-        <v>5223</v>
-      </c>
-      <c r="C1619" t="s">
-        <v>5224</v>
-      </c>
-      <c r="D1619" t="s">
-        <v>5225</v>
-      </c>
-      <c r="E1619" t="s">
-        <v>5226</v>
-      </c>
-      <c r="F1619" t="s">
-        <v>5652</v>
-      </c>
-      <c r="G1619" t="s">
-        <v>5654</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1594:D1048576 D1:D1591">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+  <conditionalFormatting sqref="D1593:D1048576 D1:D1590">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1591">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1591">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1592">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1592">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1593">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1593">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1594:B1595 B2:B1591">
-    <cfRule type="duplicateValues" dxfId="2" priority="15"/>
+  <conditionalFormatting sqref="B1593:B1594 B2:B1590">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bibsam_tidskriftslistor/scifree_data_wiley.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_wiley.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11076" uniqueCount="6140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11076" uniqueCount="6141">
   <si>
     <t>Open</t>
   </si>
@@ -18439,6 +18439,9 @@
   </si>
   <si>
     <t>Business Ethics, the Environment and Responsibility</t>
+  </si>
+  <si>
+    <t>CC-BY-NC, CC-BY-NC-ND</t>
   </si>
 </sst>
 </file>
@@ -18490,6 +18493,23 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18550,23 +18570,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -18581,10 +18584,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G1618" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G1618" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:G1618"/>
-  <sortState ref="A2:G1619">
-    <sortCondition ref="D1:D1619"/>
+  <sortState ref="A2:G1618">
+    <sortCondition ref="D1:D1618"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Imprint"/>
@@ -18864,9 +18867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1419" workbookViewId="0">
-      <selection activeCell="D1427" sqref="D1427"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19011,7 +19012,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -19195,7 +19196,7 @@
         <v>5652</v>
       </c>
       <c r="G14" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -19218,7 +19219,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -19264,7 +19265,7 @@
         <v>5652</v>
       </c>
       <c r="G17" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -19376,7 +19377,7 @@
         <v>5652</v>
       </c>
       <c r="G22" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -20148,7 +20149,7 @@
         <v>5652</v>
       </c>
       <c r="G57" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -20257,7 +20258,7 @@
         <v>5652</v>
       </c>
       <c r="G62" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -20280,7 +20281,7 @@
         <v>5652</v>
       </c>
       <c r="G63" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -20303,7 +20304,7 @@
         <v>5652</v>
       </c>
       <c r="G64" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -20326,7 +20327,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -20349,7 +20350,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -20740,7 +20741,7 @@
         <v>5652</v>
       </c>
       <c r="G83" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -20763,7 +20764,7 @@
         <v>5652</v>
       </c>
       <c r="G84" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -21208,7 +21209,7 @@
         <v>5652</v>
       </c>
       <c r="G104" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -21274,7 +21275,7 @@
         <v>5652</v>
       </c>
       <c r="G107" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -21998,7 +21999,7 @@
         <v>5652</v>
       </c>
       <c r="G139" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -22021,7 +22022,7 @@
         <v>5652</v>
       </c>
       <c r="G140" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -22363,7 +22364,7 @@
         <v>5652</v>
       </c>
       <c r="G155" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -22633,7 +22634,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -23001,7 +23002,7 @@
         <v>5652</v>
       </c>
       <c r="G183" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -23705,7 +23706,7 @@
         <v>5652</v>
       </c>
       <c r="G214" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -23837,7 +23838,7 @@
         <v>5652</v>
       </c>
       <c r="G220" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -23883,7 +23884,7 @@
         <v>5652</v>
       </c>
       <c r="G222" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -23952,7 +23953,7 @@
         <v>5652</v>
       </c>
       <c r="G225" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -23975,7 +23976,7 @@
         <v>5652</v>
       </c>
       <c r="G226" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -24274,7 +24275,7 @@
         <v>5652</v>
       </c>
       <c r="G239" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -24432,7 +24433,7 @@
         <v>5652</v>
       </c>
       <c r="G246" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -24610,7 +24611,7 @@
         <v>5652</v>
       </c>
       <c r="G254" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -24630,7 +24631,7 @@
         <v>0</v>
       </c>
       <c r="G255" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -24653,7 +24654,7 @@
         <v>5652</v>
       </c>
       <c r="G256" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -24716,7 +24717,7 @@
         <v>0</v>
       </c>
       <c r="G259" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -24736,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="G260" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -24759,7 +24760,7 @@
         <v>5652</v>
       </c>
       <c r="G261" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -25842,7 +25843,7 @@
         <v>5652</v>
       </c>
       <c r="G309" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -25865,7 +25866,7 @@
         <v>5652</v>
       </c>
       <c r="G310" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -25948,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="G314" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
@@ -25968,7 +25969,7 @@
         <v>0</v>
       </c>
       <c r="G315" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -26011,7 +26012,7 @@
         <v>5652</v>
       </c>
       <c r="G317" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -26103,7 +26104,7 @@
         <v>5652</v>
       </c>
       <c r="G321" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -26149,7 +26150,7 @@
         <v>5652</v>
       </c>
       <c r="G323" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -26264,7 +26265,7 @@
         <v>5652</v>
       </c>
       <c r="G328" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -26959,7 +26960,7 @@
         <v>0</v>
       </c>
       <c r="G359" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
@@ -27097,7 +27098,7 @@
         <v>5652</v>
       </c>
       <c r="G365" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -27120,7 +27121,7 @@
         <v>5652</v>
       </c>
       <c r="G366" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -27143,7 +27144,7 @@
         <v>5652</v>
       </c>
       <c r="G367" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -27189,7 +27190,7 @@
         <v>5652</v>
       </c>
       <c r="G369" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
@@ -27304,7 +27305,7 @@
         <v>5652</v>
       </c>
       <c r="G374" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
@@ -27327,7 +27328,7 @@
         <v>5652</v>
       </c>
       <c r="G375" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -27804,7 +27805,7 @@
         <v>5652</v>
       </c>
       <c r="G396" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
@@ -27850,7 +27851,7 @@
         <v>5652</v>
       </c>
       <c r="G398" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
@@ -28967,7 +28968,7 @@
         <v>0</v>
       </c>
       <c r="G448" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
@@ -29584,7 +29585,7 @@
         <v>5652</v>
       </c>
       <c r="G476" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
@@ -29693,7 +29694,7 @@
         <v>0</v>
       </c>
       <c r="G481" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
@@ -29854,7 +29855,7 @@
         <v>5652</v>
       </c>
       <c r="G488" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
@@ -29946,7 +29947,7 @@
         <v>5652</v>
       </c>
       <c r="G492" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
@@ -29969,7 +29970,7 @@
         <v>5652</v>
       </c>
       <c r="G493" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
@@ -30061,7 +30062,7 @@
         <v>5652</v>
       </c>
       <c r="G497" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
@@ -32273,7 +32274,7 @@
         <v>5652</v>
       </c>
       <c r="G595" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
@@ -32342,7 +32343,7 @@
         <v>5652</v>
       </c>
       <c r="G598" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
@@ -32655,7 +32656,7 @@
         <v>5652</v>
       </c>
       <c r="G612" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
@@ -32675,7 +32676,7 @@
         <v>0</v>
       </c>
       <c r="G613" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
@@ -32698,7 +32699,7 @@
         <v>5652</v>
       </c>
       <c r="G614" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
@@ -32879,7 +32880,7 @@
         <v>5652</v>
       </c>
       <c r="G622" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
@@ -33915,7 +33916,7 @@
         <v>0</v>
       </c>
       <c r="G672" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
@@ -34320,7 +34321,7 @@
         <v>5652</v>
       </c>
       <c r="G690" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
@@ -34412,7 +34413,7 @@
         <v>5652</v>
       </c>
       <c r="G694" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.25">
@@ -34915,7 +34916,7 @@
         <v>5652</v>
       </c>
       <c r="G716" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
@@ -35829,7 +35830,7 @@
         <v>5652</v>
       </c>
       <c r="G756" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.25">
@@ -36105,7 +36106,7 @@
         <v>5652</v>
       </c>
       <c r="G768" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.25">
@@ -36561,7 +36562,7 @@
         <v>5652</v>
       </c>
       <c r="G789" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.25">
@@ -36926,7 +36927,7 @@
         <v>5652</v>
       </c>
       <c r="G805" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.25">
@@ -37541,7 +37542,7 @@
         <v>5652</v>
       </c>
       <c r="G832" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="833" spans="1:7" x14ac:dyDescent="0.25">
@@ -37946,7 +37947,7 @@
         <v>5652</v>
       </c>
       <c r="G850" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.25">
@@ -37969,7 +37970,7 @@
         <v>5652</v>
       </c>
       <c r="G851" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="852" spans="1:7" x14ac:dyDescent="0.25">
@@ -37992,7 +37993,7 @@
         <v>5652</v>
       </c>
       <c r="G852" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="853" spans="1:7" x14ac:dyDescent="0.25">
@@ -38291,7 +38292,7 @@
         <v>5652</v>
       </c>
       <c r="G865" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="866" spans="1:7" x14ac:dyDescent="0.25">
@@ -38423,7 +38424,7 @@
         <v>0</v>
       </c>
       <c r="G871" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="872" spans="1:7" x14ac:dyDescent="0.25">
@@ -38607,7 +38608,7 @@
         <v>5652</v>
       </c>
       <c r="G879" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="880" spans="1:7" x14ac:dyDescent="0.25">
@@ -39107,7 +39108,7 @@
         <v>5652</v>
       </c>
       <c r="G901" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="902" spans="1:7" x14ac:dyDescent="0.25">
@@ -40297,7 +40298,7 @@
         <v>5652</v>
       </c>
       <c r="G953" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="954" spans="1:7" x14ac:dyDescent="0.25">
@@ -40616,7 +40617,7 @@
         <v>5652</v>
       </c>
       <c r="G967" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="968" spans="1:7" x14ac:dyDescent="0.25">
@@ -40938,7 +40939,7 @@
         <v>5652</v>
       </c>
       <c r="G981" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="982" spans="1:7" x14ac:dyDescent="0.25">
@@ -41826,7 +41827,7 @@
         <v>0</v>
       </c>
       <c r="G1020" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
@@ -41846,7 +41847,7 @@
         <v>0</v>
       </c>
       <c r="G1021" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
@@ -41961,7 +41962,7 @@
         <v>5652</v>
       </c>
       <c r="G1026" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1027" spans="1:7" x14ac:dyDescent="0.25">
@@ -42280,7 +42281,7 @@
         <v>5652</v>
       </c>
       <c r="G1040" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1041" spans="1:7" x14ac:dyDescent="0.25">
@@ -42780,7 +42781,7 @@
         <v>0</v>
       </c>
       <c r="G1062" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1063" spans="1:7" x14ac:dyDescent="0.25">
@@ -42826,7 +42827,7 @@
         <v>5652</v>
       </c>
       <c r="G1064" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1065" spans="1:7" x14ac:dyDescent="0.25">
@@ -43334,7 +43335,7 @@
         <v>5652</v>
       </c>
       <c r="G1087" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1088" spans="1:7" x14ac:dyDescent="0.25">
@@ -44822,7 +44823,7 @@
         <v>5652</v>
       </c>
       <c r="G1153" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1154" spans="1:7" x14ac:dyDescent="0.25">
@@ -44868,7 +44869,7 @@
         <v>5652</v>
       </c>
       <c r="G1155" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1156" spans="1:7" x14ac:dyDescent="0.25">
@@ -45092,7 +45093,7 @@
         <v>5652</v>
       </c>
       <c r="G1165" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1166" spans="1:7" x14ac:dyDescent="0.25">
@@ -45184,7 +45185,7 @@
         <v>5652</v>
       </c>
       <c r="G1169" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1170" spans="1:7" x14ac:dyDescent="0.25">
@@ -45342,7 +45343,7 @@
         <v>5652</v>
       </c>
       <c r="G1176" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1177" spans="1:7" x14ac:dyDescent="0.25">
@@ -46052,7 +46053,7 @@
         <v>5652</v>
       </c>
       <c r="G1207" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1208" spans="1:7" x14ac:dyDescent="0.25">
@@ -46483,7 +46484,7 @@
         <v>5652</v>
       </c>
       <c r="G1226" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1227" spans="1:7" x14ac:dyDescent="0.25">
@@ -46802,7 +46803,7 @@
         <v>5652</v>
       </c>
       <c r="G1240" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1241" spans="1:7" x14ac:dyDescent="0.25">
@@ -46848,7 +46849,7 @@
         <v>5652</v>
       </c>
       <c r="G1242" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1243" spans="1:7" x14ac:dyDescent="0.25">
@@ -46871,7 +46872,7 @@
         <v>5652</v>
       </c>
       <c r="G1243" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1244" spans="1:7" x14ac:dyDescent="0.25">
@@ -46894,7 +46895,7 @@
         <v>5652</v>
       </c>
       <c r="G1244" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1245" spans="1:7" x14ac:dyDescent="0.25">
@@ -46960,7 +46961,7 @@
         <v>5652</v>
       </c>
       <c r="G1247" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1248" spans="1:7" x14ac:dyDescent="0.25">
@@ -47345,7 +47346,7 @@
         <v>5652</v>
       </c>
       <c r="G1264" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1265" spans="1:7" x14ac:dyDescent="0.25">
@@ -48181,7 +48182,7 @@
         <v>5652</v>
       </c>
       <c r="G1301" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1302" spans="1:7" x14ac:dyDescent="0.25">
@@ -49571,7 +49572,7 @@
         <v>0</v>
       </c>
       <c r="G1363" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1364" spans="1:7" x14ac:dyDescent="0.25">
@@ -50416,7 +50417,7 @@
         <v>5652</v>
       </c>
       <c r="G1400" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1401" spans="1:7" x14ac:dyDescent="0.25">
@@ -50907,7 +50908,7 @@
         <v>5652</v>
       </c>
       <c r="G1422" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1423" spans="1:7" x14ac:dyDescent="0.25">
@@ -52430,7 +52431,7 @@
         <v>5652</v>
       </c>
       <c r="G1489" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1490" spans="1:7" x14ac:dyDescent="0.25">
@@ -52660,7 +52661,7 @@
         <v>5652</v>
       </c>
       <c r="G1499" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1500" spans="1:7" x14ac:dyDescent="0.25">
@@ -52680,7 +52681,7 @@
         <v>0</v>
       </c>
       <c r="G1500" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1501" spans="1:7" x14ac:dyDescent="0.25">
@@ -53154,7 +53155,7 @@
         <v>0</v>
       </c>
       <c r="G1521" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1522" spans="1:7" x14ac:dyDescent="0.25">
@@ -53177,7 +53178,7 @@
         <v>5652</v>
       </c>
       <c r="G1522" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1523" spans="1:7" x14ac:dyDescent="0.25">
@@ -53424,7 +53425,7 @@
         <v>5652</v>
       </c>
       <c r="G1533" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1534" spans="1:7" x14ac:dyDescent="0.25">
@@ -54013,7 +54014,7 @@
         <v>5652</v>
       </c>
       <c r="G1559" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1560" spans="1:7" x14ac:dyDescent="0.25">
@@ -54415,7 +54416,7 @@
         <v>5652</v>
       </c>
       <c r="G1577" t="s">
-        <v>5654</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1578" spans="1:7" x14ac:dyDescent="0.25">
@@ -55345,22 +55346,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1593:D1048576 D1:D1590">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1591">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1591">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1592">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1592">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1593:B1594 B2:B1590">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
